--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{08001DF8-A667-3541-BD9C-5B151734CB9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12A566AD-827F-E146-8A96-DE610BC29D5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="208">
   <si>
     <t>eid</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>Structure of Sentences and Meanings</t>
-  </si>
-  <si>
-    <t>English Language and Literature</t>
   </si>
   <si>
     <t>cid</t>
@@ -1700,7 +1697,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1784,7 +1781,7 @@
         <v>115</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>97</v>
@@ -1801,7 +1798,7 @@
         <v>116</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>99</v>
@@ -1818,7 +1815,7 @@
         <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>99</v>
@@ -1835,7 +1832,7 @@
         <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>101</v>
@@ -1852,7 +1849,7 @@
         <v>119</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>101</v>
@@ -1886,10 +1883,10 @@
         <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1912,37 +1909,39 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2040,7 +2039,7 @@
         <v>44265</v>
       </c>
       <c r="C5" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="D5" s="2">
         <v>44301</v>
@@ -2098,7 +2097,7 @@
         <v>44265</v>
       </c>
       <c r="C7" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="D7" s="2">
         <v>44301</v>
@@ -2162,7 +2161,7 @@
         <v>44230</v>
       </c>
       <c r="E9" s="2">
-        <v>43845</v>
+        <v>44211</v>
       </c>
       <c r="F9" s="1">
         <v>150</v>
@@ -2185,7 +2184,7 @@
         <v>44265</v>
       </c>
       <c r="C10" s="2">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="D10" s="2">
         <v>44301</v>
@@ -2217,7 +2216,7 @@
         <v>44252</v>
       </c>
       <c r="D11" s="2">
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="E11" s="2">
         <v>44242</v>
@@ -2247,33 +2246,33 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A7" zoomScale="170" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>71</v>
@@ -2368,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="E5" s="1">
         <v>14</v>
@@ -2446,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="9">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="E8" s="8">
         <v>14</v>
@@ -2550,13 +2549,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="9">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="E12" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" s="8">
         <v>5</v>
@@ -2657,10 +2656,10 @@
         <v>44228</v>
       </c>
       <c r="E16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="G16" s="1">
         <v>12</v>
@@ -2683,10 +2682,10 @@
         <v>44230</v>
       </c>
       <c r="E17" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="G17" s="1">
         <v>12</v>
@@ -2706,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="9">
-        <v>44296</v>
+        <v>44295</v>
       </c>
       <c r="E18" s="8">
         <v>14</v>
@@ -2784,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>44255</v>
+        <v>44253</v>
       </c>
       <c r="E21" s="1">
         <v>17</v>
@@ -2822,13 +2821,13 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -2934,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>94</v>
@@ -2954,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2971,16 +2970,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2988,16 +2987,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3005,16 +3004,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3022,16 +3021,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3039,16 +3038,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3056,16 +3055,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3073,16 +3072,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3090,16 +3089,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3107,16 +3106,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3137,18 +3136,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2">
         <v>45476</v>
@@ -3159,7 +3158,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2">
         <v>45477</v>
@@ -3170,7 +3169,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="2">
         <v>45478</v>
@@ -3181,7 +3180,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" s="2">
         <v>45479</v>
@@ -3192,7 +3191,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="2">
         <v>45480</v>
@@ -3203,7 +3202,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="2">
         <v>45481</v>
@@ -3214,7 +3213,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2">
         <v>45482</v>
@@ -3225,7 +3224,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2">
         <v>45483</v>
@@ -3236,7 +3235,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10" s="2">
         <v>45484</v>
@@ -3247,7 +3246,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11" s="2">
         <v>45485</v>
@@ -3274,13 +3273,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3288,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2">
         <v>43649</v>
@@ -3299,7 +3298,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2">
         <v>43650</v>
@@ -3310,7 +3309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2">
         <v>43651</v>
@@ -3321,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2">
         <v>43652</v>
@@ -3332,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2">
         <v>43653</v>
@@ -3343,7 +3342,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2">
         <v>43654</v>
@@ -3354,7 +3353,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="2">
         <v>43655</v>
@@ -3365,7 +3364,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2">
         <v>43656</v>
@@ -3376,7 +3375,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="2">
         <v>43657</v>
@@ -3387,7 +3386,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2">
         <v>43658</v>
@@ -3405,7 +3404,9 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3414,22 +3415,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3446,7 +3447,7 @@
         <v>42730</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F2" s="1">
         <v>166</v>
@@ -3466,7 +3467,7 @@
         <v>46973</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F3" s="1">
         <v>178</v>
@@ -3486,7 +3487,7 @@
         <v>47483</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F4" s="1">
         <v>233</v>
@@ -3506,7 +3507,7 @@
         <v>44594</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F5" s="1">
         <v>399</v>
@@ -3628,9 +3629,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="170" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3639,16 +3642,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3656,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2">
         <v>42528</v>
@@ -3670,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2">
         <v>43320</v>
@@ -3684,7 +3687,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2">
         <v>44581</v>
@@ -3698,7 +3701,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="2">
         <v>44593</v>
@@ -3712,13 +3715,24 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C6" s="2">
         <v>44594</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43321</v>
       </c>
     </row>
   </sheetData>
@@ -3733,39 +3747,41 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="194" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2">
         <v>43320</v>
@@ -3780,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>43322</v>
+        <v>44247</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3788,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2">
         <v>43321</v>
@@ -3824,24 +3840,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3858,7 +3874,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -3873,9 +3889,9 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B4" s="3">
         <v>3</v>
@@ -3902,7 +3918,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="168" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3910,30 +3926,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3956,7 +3972,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\Documents\GitHub\cs2102-team61\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{12A566AD-827F-E146-8A96-DE610BC29D5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883AB161-F370-444E-A80B-EDABF4861EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="953" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -987,14 +987,14 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>42976</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1357,12 +1357,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1607,12 +1607,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>98</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>99</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>103</v>
       </c>
@@ -1700,12 +1700,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1909,13 +1909,13 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2246,13 +2246,13 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="170" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>5</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -2814,12 +2814,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -2929,9 +2929,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3132,9 +3132,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>181</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>184</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>186</v>
       </c>
@@ -3269,9 +3269,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>43653</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3404,16 +3404,16 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
+    <sheetView zoomScale="73" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3529,9 +3529,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>8888</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3631,16 +3631,16 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="170" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="127" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3676,13 +3676,13 @@
         <v>181</v>
       </c>
       <c r="C3" s="2">
-        <v>43320</v>
+        <v>43381</v>
       </c>
       <c r="D3" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3733,6 +3733,9 @@
       </c>
       <c r="C7" s="2">
         <v>43321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3747,13 +3750,13 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="194" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView zoomScale="133" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3776,7 +3779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>181</v>
       </c>
       <c r="C2" s="2">
-        <v>43320</v>
+        <v>43381</v>
       </c>
       <c r="D2" s="3">
         <v>6</v>
@@ -3799,15 +3802,15 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C3" s="2">
-        <v>43321</v>
+        <v>43381</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
@@ -3834,11 +3837,13 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -3872,7 +3877,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -3889,7 +3894,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
@@ -3918,13 +3923,13 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -3970,9 +3975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -4009,9 +4014,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4019,7 +4024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -4027,7 +4032,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -4051,7 +4056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4059,7 +4064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -4081,64 +4086,64 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -4157,34 +4162,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4203,39 +4208,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -4254,19 +4259,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -4285,24 +4290,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -4321,9 +4326,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\Documents\GitHub\cs2102-team61\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883AB161-F370-444E-A80B-EDABF4861EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878EB1A2-0C89-445F-8B05-718968C54A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="953" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="953" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="208">
   <si>
     <t>eid</t>
   </si>
@@ -1909,7 +1909,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -3130,7 +3130,9 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3267,7 +3269,9 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3838,7 +3842,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3923,8 +3927,8 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3953,8 +3957,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>177</v>
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3976,8 +3980,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>181</v>
+      <c r="A3" s="1">
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hello\Documents\GitHub\cs2102-team61\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878EB1A2-0C89-445F-8B05-718968C54A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C71358F9-20BF-6D4B-B663-38849ED55B11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="953" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -984,17 +984,17 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>42976</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>42372</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>39451</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>43470</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>44260</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>44085</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>44262</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>44283</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>43538</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1357,12 +1357,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="43.453125" customWidth="1"/>
+    <col min="2" max="2" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1605,14 +1605,16 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>94</v>
       </c>
@@ -1620,7 +1622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -1636,7 +1638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>98</v>
       </c>
@@ -1644,31 +1646,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>102</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>103</v>
       </c>
@@ -1700,12 +1702,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>104</v>
       </c>
@@ -1722,7 +1724,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1739,7 +1741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1756,7 +1758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1790,7 +1792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1807,7 +1809,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1824,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1913,9 +1915,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2060,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2089,7 +2091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2118,7 +2120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2176,7 +2178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2250,9 +2252,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2330,7 +2332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2434,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>3</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -2564,7 +2566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>4</v>
       </c>
@@ -2590,7 +2592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>5</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -2668,7 +2670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -2694,7 +2696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>5</v>
       </c>
@@ -2720,7 +2722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>5</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -2814,12 +2816,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
@@ -2827,7 +2829,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2843,7 +2845,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>11</v>
       </c>
@@ -2875,7 +2877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>12</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>13</v>
       </c>
@@ -2891,7 +2893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>14</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>15</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -2929,9 +2931,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2948,7 +2950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2982,7 +2984,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3067,7 +3069,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3101,7 +3103,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3134,9 +3136,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -3147,7 +3149,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -3158,7 +3160,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -3169,7 +3171,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>179</v>
       </c>
@@ -3180,7 +3182,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>180</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>181</v>
       </c>
@@ -3202,7 +3204,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>182</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>184</v>
       </c>
@@ -3235,7 +3237,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>186</v>
       </c>
@@ -3273,9 +3275,9 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3297,7 +3299,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3308,7 +3310,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3319,7 +3321,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>43653</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3363,7 +3365,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3374,7 +3376,7 @@
         <v>43656</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>43657</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3412,12 +3414,12 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3437,7 +3439,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3457,7 +3459,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3533,9 +3535,9 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3559,7 +3561,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3567,7 +3569,7 @@
         <v>8888</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3575,7 +3577,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3583,7 +3585,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3591,7 +3593,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3639,12 +3641,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3686,7 +3688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3714,7 +3716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -3728,7 +3730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3755,12 +3757,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>188</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -3806,7 +3808,7 @@
         <v>44247</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3845,9 +3847,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -3864,7 +3866,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>177</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
@@ -3898,7 +3900,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
@@ -3927,13 +3929,13 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
@@ -3956,7 +3958,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3979,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -4018,9 +4020,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -4036,7 +4038,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -4052,7 +4054,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4068,7 +4070,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -4090,64 +4092,64 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -4166,34 +4168,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4212,39 +4214,39 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -4263,19 +4265,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>10</v>
       </c>
@@ -4294,24 +4296,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>8</v>
       </c>
@@ -4330,9 +4332,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzaza/Desktop/cs2103-projects/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C71358F9-20BF-6D4B-B663-38849ED55B11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B76B56E-C837-5445-BF70-BD436726B71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1540" yWindow="500" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -708,6 +708,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -744,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -763,6 +769,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,7 +991,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1355,7 +1362,9 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1605,7 +1614,7 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1909,10 +1918,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2233,6 +2242,35 @@
         <v>35.9</v>
       </c>
       <c r="I11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44285</v>
+      </c>
+      <c r="C12" s="16">
+        <v>44333</v>
+      </c>
+      <c r="D12" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E12" s="16">
+        <v>44323</v>
+      </c>
+      <c r="F12" s="1">
+        <v>60</v>
+      </c>
+      <c r="G12" s="1">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1">
+        <v>59.9</v>
+      </c>
+      <c r="I12" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2246,10 +2284,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2798,6 +2836,84 @@
       </c>
       <c r="H21" s="1">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44285</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>44333</v>
+      </c>
+      <c r="E22" s="1">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1">
+        <v>16</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44285</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="16">
+        <v>44336</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>12</v>
+      </c>
+      <c r="G23" s="1">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44285</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16">
+        <v>44347</v>
+      </c>
+      <c r="E24" s="1">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzaza/Desktop/cs2103-projects/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B76B56E-C837-5445-BF70-BD436726B71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC276C80-1086-7146-A595-2726C9A56D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="500" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="840" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="208">
   <si>
     <t>eid</t>
   </si>
@@ -750,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -770,6 +770,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1363,7 +1364,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1918,10 +1919,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2271,6 +2272,122 @@
         <v>59.9</v>
       </c>
       <c r="I12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D13" s="16">
+        <v>44228</v>
+      </c>
+      <c r="E13" s="16">
+        <v>44216</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1">
+        <v>40</v>
+      </c>
+      <c r="H13" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44228</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44256</v>
+      </c>
+      <c r="E14" s="16">
+        <v>44247</v>
+      </c>
+      <c r="F14" s="1">
+        <v>20</v>
+      </c>
+      <c r="G14" s="1">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16">
+        <v>44256</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E15" s="16">
+        <v>44275</v>
+      </c>
+      <c r="F15" s="1">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44285</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44326</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44326</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44316</v>
+      </c>
+      <c r="F16" s="1">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>49.9</v>
+      </c>
+      <c r="I16">
         <v>10</v>
       </c>
     </row>
@@ -2284,10 +2401,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2914,6 +3031,110 @@
       </c>
       <c r="H24" s="1">
         <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44228</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44228</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44256</v>
+      </c>
+      <c r="E26" s="1">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" s="16">
+        <v>44256</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44287</v>
+      </c>
+      <c r="E27" s="1">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>5</v>
+      </c>
+      <c r="B28" s="16">
+        <v>44285</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44326</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G28" s="1">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2926,10 +3147,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3032,6 +3253,10 @@
       <c r="B12" s="5" t="s">
         <v>103</v>
       </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3249,7 +3474,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3388,7 +3613,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3754,7 +3979,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" activeCellId="1" sqref="B2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3812,7 +4037,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="2">
-        <v>44581</v>
+        <v>44197</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
@@ -3826,7 +4051,7 @@
         <v>186</v>
       </c>
       <c r="C5" s="2">
-        <v>44593</v>
+        <v>44197</v>
       </c>
       <c r="D5" s="1">
         <v>20</v>
@@ -3840,7 +4065,7 @@
         <v>178</v>
       </c>
       <c r="C6" s="2">
-        <v>44594</v>
+        <v>44197</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
@@ -3870,10 +4095,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3947,8 +4172,147 @@
         <v>44084</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44265</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9">
+        <v>44295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42528</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>44285</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43381</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44197</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44228</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42528</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="16">
+        <v>44256</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3957,10 +4321,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4031,6 +4395,108 @@
       </c>
       <c r="E4" s="15">
         <v>44294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="12">
+        <v>44265</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16">
+        <v>44285</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16">
+        <v>44285</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="16">
+        <v>44256</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="16">
+        <v>44256</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44287</v>
       </c>
     </row>
   </sheetData>
@@ -4043,10 +4509,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4118,6 +4584,29 @@
       </c>
       <c r="G3" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8</v>
+      </c>
+      <c r="C4" s="16">
+        <v>44256</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44285</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC276C80-1086-7146-A595-2726C9A56D7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2636361-E134-6F40-8A01-1F89281C8292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="840" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2480" yWindow="840" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -1922,7 +1922,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2318,7 +2318,7 @@
         <v>44256</v>
       </c>
       <c r="E14" s="16">
-        <v>44247</v>
+        <v>44245</v>
       </c>
       <c r="F14" s="1">
         <v>20</v>
@@ -3147,10 +3147,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3253,10 +3253,6 @@
       <c r="B12" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4323,7 +4319,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4511,8 +4507,8 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2636361-E134-6F40-8A01-1F89281C8292}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C332D-1EC9-A949-8AA6-82764E2F7981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="840" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="820" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="211">
   <si>
     <t>eid</t>
   </si>
@@ -666,6 +666,15 @@
   </si>
   <si>
     <t xml:space="preserve">This module explores language structure, in particular, patterns of sentence structure (syntax) and of meaning (semantics) in English. </t>
+  </si>
+  <si>
+    <t>HAPPY NEW YEAR</t>
+  </si>
+  <si>
+    <t>HAPPY NEW MONTH</t>
+  </si>
+  <si>
+    <t>HAPPY APRIL FOOLS</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2413,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3470,7 +3479,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3609,7 +3618,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3745,10 +3754,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="73" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3833,7 +3842,7 @@
         <v>195</v>
       </c>
       <c r="F4" s="1">
-        <v>233</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3854,6 +3863,66 @@
       </c>
       <c r="F5" s="1">
         <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44531</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44532</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44533</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="1">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3972,10 +4041,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="C2" activeCellId="1" sqref="B2 C2"/>
+    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4008,7 +4077,7 @@
         <v>42528</v>
       </c>
       <c r="D2" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4022,7 +4091,7 @@
         <v>43381</v>
       </c>
       <c r="D3" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4064,7 +4133,7 @@
         <v>44197</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4079,6 +4148,62 @@
       </c>
       <c r="D7" s="1">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44288</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44288</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44288</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44288</v>
+      </c>
+      <c r="D11" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4094,7 +4219,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4507,7 +4632,7 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="107" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzaza/Desktop/cs2103-projects/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815C332D-1EC9-A949-8AA6-82764E2F7981}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5E99D-E0B3-B84B-8E6C-58536B9CA972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="820" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="780" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +746,12 @@
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -759,7 +765,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -780,6 +786,9 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1931,7 +1940,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3618,7 +3627,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4044,7 +4053,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4091,7 +4100,7 @@
         <v>43381</v>
       </c>
       <c r="D3" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4267,29 +4276,29 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>44247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="19">
         <v>43381</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="18">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="19">
         <v>44075</v>
       </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="19">
         <v>44084</v>
       </c>
     </row>
@@ -4313,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>44228</v>
+        <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4336,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>44295</v>
+        <v>44285</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4352,14 +4361,14 @@
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="16">
-        <v>44285</v>
+      <c r="E6" s="2">
+        <v>44265</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>44326</v>
+        <v>44265</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4382,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>44228</v>
+        <v>44216</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4405,7 +4414,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>44256</v>
+        <v>44245</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4428,7 +4437,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="2">
-        <v>44287</v>
+        <v>44273</v>
       </c>
     </row>
   </sheetData>
@@ -4445,7 +4454,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4481,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="14">
-        <v>44096</v>
+        <v>44094</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4498,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>44166</v>
+        <v>44136</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -4515,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="15">
-        <v>44294</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4532,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="12">
-        <v>44301</v>
+        <v>44270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4549,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>44326</v>
+        <v>44296</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4566,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>44326</v>
+        <v>44297</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4583,7 +4592,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>44256</v>
+        <v>44229</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4600,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>44287</v>
+        <v>44258</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4617,7 +4626,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>44287</v>
+        <v>44258</v>
       </c>
     </row>
   </sheetData>
@@ -4633,7 +4642,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzaza/Desktop/cs2103-projects/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5E99D-E0B3-B84B-8E6C-58536B9CA972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40AD706A-6515-1745-AADC-C05363D4FBCA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="780" windowWidth="25600" windowHeight="16000" tabRatio="953" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="953" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,16 @@
     <sheet name="Courses" sheetId="12" r:id="rId12"/>
     <sheet name="Offerings" sheetId="13" r:id="rId13"/>
     <sheet name="Sessions" sheetId="14" r:id="rId14"/>
-    <sheet name="Specializes" sheetId="15" r:id="rId15"/>
-    <sheet name="Customers" sheetId="16" r:id="rId16"/>
-    <sheet name="Credit_cards" sheetId="17" r:id="rId17"/>
-    <sheet name="Owns" sheetId="18" r:id="rId18"/>
-    <sheet name="Course_packages" sheetId="19" r:id="rId19"/>
-    <sheet name="Buys" sheetId="20" r:id="rId20"/>
-    <sheet name="Redeems" sheetId="21" r:id="rId21"/>
-    <sheet name="Registers" sheetId="22" r:id="rId22"/>
-    <sheet name="Cancels" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId15"/>
+    <sheet name="Specializes" sheetId="15" r:id="rId16"/>
+    <sheet name="Customers" sheetId="16" r:id="rId17"/>
+    <sheet name="Credit_cards" sheetId="17" r:id="rId18"/>
+    <sheet name="Owns" sheetId="18" r:id="rId19"/>
+    <sheet name="Course_packages" sheetId="19" r:id="rId20"/>
+    <sheet name="Buys" sheetId="20" r:id="rId21"/>
+    <sheet name="Redeems" sheetId="21" r:id="rId22"/>
+    <sheet name="Registers" sheetId="22" r:id="rId23"/>
+    <sheet name="Cancels" sheetId="23" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -765,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -789,6 +790,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,7 +1012,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1937,10 +1939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" zoomScale="164" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2406,6 +2408,35 @@
         <v>49.9</v>
       </c>
       <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44316</v>
+      </c>
+      <c r="C17" s="21">
+        <v>44348</v>
+      </c>
+      <c r="D17" s="21">
+        <v>44382</v>
+      </c>
+      <c r="E17" s="21">
+        <v>44322</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1">
+        <v>125.8</v>
+      </c>
+      <c r="I17" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2419,10 +2450,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A4" zoomScale="118" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3155,20 +3186,58 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>3</v>
+      </c>
+      <c r="B29" s="21">
+        <v>44316</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21">
+        <v>44369</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0F4D58-5DF1-D94E-8AC0-995DFE1FEE00}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3277,14 +3346,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3480,7 +3551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3619,7 +3690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3751,187 +3822,6 @@
       </c>
       <c r="C11" s="2">
         <v>43658</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="5" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42527</v>
-      </c>
-      <c r="D2" s="2">
-        <v>42730</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43320</v>
-      </c>
-      <c r="D3" s="2">
-        <v>46973</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="D4" s="2">
-        <v>47483</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="1">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44197</v>
-      </c>
-      <c r="D5" s="2">
-        <v>44594</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44228</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44531</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44256</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44532</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44287</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44533</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="1">
-        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4046,13 +3936,194 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>42527</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42730</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43320</v>
+      </c>
+      <c r="D3" s="2">
+        <v>46973</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43466</v>
+      </c>
+      <c r="D4" s="2">
+        <v>47483</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44594</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44228</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44531</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44256</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44532</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44287</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44533</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="1">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0">
+    <sheetView zoomScale="127" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4220,7 +4291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4228,7 +4299,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4446,7 +4517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4454,7 +4525,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4634,7 +4705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40AD706A-6515-1745-AADC-C05363D4FBCA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B60134C-9A6F-264A-BCBC-32941F5018EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="953" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -27,23 +27,27 @@
     <sheet name="Courses" sheetId="12" r:id="rId12"/>
     <sheet name="Offerings" sheetId="13" r:id="rId13"/>
     <sheet name="Sessions" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId15"/>
-    <sheet name="Specializes" sheetId="15" r:id="rId16"/>
-    <sheet name="Customers" sheetId="16" r:id="rId17"/>
-    <sheet name="Credit_cards" sheetId="17" r:id="rId18"/>
-    <sheet name="Owns" sheetId="18" r:id="rId19"/>
-    <sheet name="Course_packages" sheetId="19" r:id="rId20"/>
-    <sheet name="Buys" sheetId="20" r:id="rId21"/>
-    <sheet name="Redeems" sheetId="21" r:id="rId22"/>
-    <sheet name="Registers" sheetId="22" r:id="rId23"/>
-    <sheet name="Cancels" sheetId="23" r:id="rId24"/>
+    <sheet name="Specializes" sheetId="15" r:id="rId15"/>
+    <sheet name="Customers" sheetId="16" r:id="rId16"/>
+    <sheet name="Credit_cards" sheetId="17" r:id="rId17"/>
+    <sheet name="Owns" sheetId="18" r:id="rId18"/>
+    <sheet name="Course_packages" sheetId="19" r:id="rId19"/>
+    <sheet name="Buys" sheetId="20" r:id="rId20"/>
+    <sheet name="Redeems" sheetId="21" r:id="rId21"/>
+    <sheet name="Registers" sheetId="22" r:id="rId22"/>
+    <sheet name="Cancels" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId27" roundtripDataSignature="AMtx7mhKG3Zlx72GLTVwlsHN/7s2RNYUJw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="280">
   <si>
     <t>eid</t>
   </si>
@@ -66,7 +70,7 @@
     <t>depart_date</t>
   </si>
   <si>
-    <t>Tian Cai</t>
+    <t>Jonathan Joestar</t>
   </si>
   <si>
     <t>abc@gmail.com</t>
@@ -78,7 +82,7 @@
     <t>abc street</t>
   </si>
   <si>
-    <t>Ben Dan</t>
+    <t>Dio Brando</t>
   </si>
   <si>
     <t>qqq@gmail.com</t>
@@ -90,7 +94,7 @@
     <t xml:space="preserve">bcd street </t>
   </si>
   <si>
-    <t>Ha Ha</t>
+    <t>Joseph Joestar</t>
   </si>
   <si>
     <t>eee@gmail.com</t>
@@ -102,7 +106,7 @@
     <t>def street</t>
   </si>
   <si>
-    <t>John Lee</t>
+    <t>Lisa Lisa</t>
   </si>
   <si>
     <t>ooo@gmail.com</t>
@@ -126,7 +130,7 @@
     <t>yyy street</t>
   </si>
   <si>
-    <t>Charles</t>
+    <t>Charles Chen</t>
   </si>
   <si>
     <t>halo@gmail.com</t>
@@ -135,7 +139,10 @@
     <t>(+65) 12345683</t>
   </si>
   <si>
-    <t>David</t>
+    <t>zzz street</t>
+  </si>
+  <si>
+    <t>David Sun</t>
   </si>
   <si>
     <t>hallo@gmail.com</t>
@@ -147,7 +154,7 @@
     <t>woe street</t>
   </si>
   <si>
-    <t>Frank</t>
+    <t>Frank Goh</t>
   </si>
   <si>
     <t>hello@gmail.com</t>
@@ -159,7 +166,7 @@
     <t>wow street</t>
   </si>
   <si>
-    <t>Bro</t>
+    <t>George Lim</t>
   </si>
   <si>
     <t>bye@gmail.com</t>
@@ -168,7 +175,10 @@
     <t>(+65) 12345686</t>
   </si>
   <si>
-    <t>Hao De</t>
+    <t>woohoo street</t>
+  </si>
+  <si>
+    <t>William Kin</t>
   </si>
   <si>
     <t>byee@gmail.com</t>
@@ -180,7 +190,7 @@
     <t>aha street</t>
   </si>
   <si>
-    <t>Yi Yang Qian Xi</t>
+    <t>Emily Wang</t>
   </si>
   <si>
     <t>yyqx@163.com</t>
@@ -192,7 +202,7 @@
     <t>tf building level 18</t>
   </si>
   <si>
-    <t>Wang Junkai</t>
+    <t>Olivia Law</t>
   </si>
   <si>
     <t>wjk@163.com</t>
@@ -201,7 +211,7 @@
     <t>(+86) 123456700</t>
   </si>
   <si>
-    <t>Wang Yuan</t>
+    <t>Jean Haw</t>
   </si>
   <si>
     <t>wy@163.com</t>
@@ -210,7 +220,7 @@
     <t>(+86) 88888888</t>
   </si>
   <si>
-    <t>Ma Jiaqi</t>
+    <t>Alex Guo</t>
   </si>
   <si>
     <t>mjq@qq.com</t>
@@ -219,7 +229,7 @@
     <t>(+86) 13955581324</t>
   </si>
   <si>
-    <t>Hua Chenyu</t>
+    <t>James Smith</t>
   </si>
   <si>
     <t>hcy@outlook.com</t>
@@ -231,7 +241,7 @@
     <t>tianyuchuanmei</t>
   </si>
   <si>
-    <t>Joel</t>
+    <t>Joel Hong</t>
   </si>
   <si>
     <t>joelhong@gmail.com</t>
@@ -240,6 +250,57 @@
     <t>(+65) 90175679</t>
   </si>
   <si>
+    <t>hwa chong institution</t>
+  </si>
+  <si>
+    <t>Eve Brown</t>
+  </si>
+  <si>
+    <t>eve@gmail.com</t>
+  </si>
+  <si>
+    <t>(+65) 90175689</t>
+  </si>
+  <si>
+    <t>raffles institution</t>
+  </si>
+  <si>
+    <t>Adam Yuan</t>
+  </si>
+  <si>
+    <t>ay@gmail.com</t>
+  </si>
+  <si>
+    <t>(+65) 10102237</t>
+  </si>
+  <si>
+    <t>rvrc</t>
+  </si>
+  <si>
+    <t>Xavior Chu</t>
+  </si>
+  <si>
+    <t>xc@gmail.com</t>
+  </si>
+  <si>
+    <t>(+65) 10102234</t>
+  </si>
+  <si>
+    <t>pgp</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>peter@gmail.com</t>
+  </si>
+  <si>
+    <t>(+65) 10102233</t>
+  </si>
+  <si>
+    <t>tembusu</t>
+  </si>
+  <si>
     <t>monthly_salary</t>
   </si>
   <si>
@@ -267,64 +328,67 @@
     <t>seating_capacity</t>
   </si>
   <si>
-    <t>Room 1 at Level 1, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Room 2 at Level 1, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Lecture Theatre 1, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Room 3 at Level 1, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Room 4 at Level 1, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Room 5 at Level 1, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Room 1 at Level 2, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Lecture Theatre 2, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Room 3 at Level 3, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Classroom at Level 4, Xiao Tiancai Building</t>
-  </si>
-  <si>
-    <t>Room 1 at Level 1, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>Room 2 at Level 1, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>Room 3 at Level 1, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>Room 1 at Level 2, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>Room 2 at Level 2, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>LT at Level 1, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>Room 3 at Level 2, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>Auditorium at Level 1, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>LT 2, Da Bendan Building</t>
-  </si>
-  <si>
-    <t>LT 3, Da Bendan Building</t>
+    <t>01-01</t>
+  </si>
+  <si>
+    <t>01-02</t>
+  </si>
+  <si>
+    <t>01-03</t>
+  </si>
+  <si>
+    <t>01-04</t>
+  </si>
+  <si>
+    <t>01-05</t>
+  </si>
+  <si>
+    <t>01-06</t>
+  </si>
+  <si>
+    <t>01-07</t>
+  </si>
+  <si>
+    <t>01-08</t>
+  </si>
+  <si>
+    <t>01-09</t>
+  </si>
+  <si>
+    <t>01-10</t>
+  </si>
+  <si>
+    <t>02-01</t>
+  </si>
+  <si>
+    <t>02-02</t>
+  </si>
+  <si>
+    <t>02-03</t>
+  </si>
+  <si>
+    <t>02-04</t>
+  </si>
+  <si>
+    <t>02-05</t>
+  </si>
+  <si>
+    <t>02-06</t>
+  </si>
+  <si>
+    <t>02-07</t>
+  </si>
+  <si>
+    <t>02-08</t>
+  </si>
+  <si>
+    <t>02-09</t>
+  </si>
+  <si>
+    <t>02-10</t>
+  </si>
+  <si>
+    <t>03-01</t>
   </si>
   <si>
     <t>name</t>
@@ -333,28 +397,34 @@
     <t>eid (manager)</t>
   </si>
   <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>Social Sciences</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>English Language</t>
-  </si>
-  <si>
-    <t>Medicine</t>
+    <t>Database Systems</t>
+  </si>
+  <si>
+    <t>Algorithms &amp; Theory</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Computer Graphics and Games</t>
+  </si>
+  <si>
+    <t>Computer Security</t>
+  </si>
+  <si>
+    <t>Multimedia Information Retrieval</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Parallel Computing</t>
+  </si>
+  <si>
+    <t>Programming Languages</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
   </si>
   <si>
     <t>course_id</t>
@@ -372,46 +442,61 @@
     <t>duration</t>
   </si>
   <si>
-    <t>Database Systems</t>
-  </si>
-  <si>
     <t>The aim of this module is to introduce the fundamental concepts and techniques necessary for the understanding and practice of design and implementation of database applications and of the management of data with relational database management systems.</t>
   </si>
   <si>
-    <t>Programming Methodology</t>
-  </si>
-  <si>
-    <t>This module introduces the concepts of programming and computational problem solving, and is the first and foremost introductory module to computing.</t>
-  </si>
-  <si>
-    <t>Cultural Studies in Asia</t>
-  </si>
-  <si>
-    <t>This module will examine the various areas of research in Cultural Studies conducted by Asian scholars or scholars locating their research in Asia.</t>
-  </si>
-  <si>
-    <t>Maritime Conflict of Laws</t>
-  </si>
-  <si>
-    <t>Linear Algebra</t>
-  </si>
-  <si>
-    <t>Calculus</t>
-  </si>
-  <si>
-    <t>Quantum Optics</t>
-  </si>
-  <si>
-    <t>Fluid Dynamics</t>
-  </si>
-  <si>
-    <t>General Chemistry</t>
-  </si>
-  <si>
-    <t>This is a chemistry module designed for non-chemistry majors and deals primarily with basic principles of structure and bonding, thermodynamics, kinetics, basic analytical techniques, properties and reactions of organic functional groups and chemistry of main group elements.</t>
-  </si>
-  <si>
-    <t>Structure of Sentences and Meanings</t>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
+    <t>The objective of this module is to provide students with a theoretical understanding of what can be computed, and an introduction to the theory of complexity.</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>This module introduces basic concepts and algorithms in machine learning and neural networks.</t>
+  </si>
+  <si>
+    <t>Graphics Rendering Techniques</t>
+  </si>
+  <si>
+    <t>This module provides a general treatment of real-time and offline rendering techniques in 3D computer graphics.</t>
+  </si>
+  <si>
+    <t>Cryptography Theory and Practice</t>
+  </si>
+  <si>
+    <t>This module aims to introduce the foundation, principles and concepts behind cryptology and the design of secure communication systems.</t>
+  </si>
+  <si>
+    <t>Sound and Music Computing</t>
+  </si>
+  <si>
+    <t>This module introduces the fundamental technologies employed in Sound and Music Computing focusing on three major categories: speech, music, and environmental sound.</t>
+  </si>
+  <si>
+    <t>Internet Architecture</t>
+  </si>
+  <si>
+    <t>This module aims to focus on advanced networking concepts pertaining to the modern Internet architecture and applications.</t>
+  </si>
+  <si>
+    <t>Multi-core Architecture</t>
+  </si>
+  <si>
+    <t>The world of parallel computer architecture has gone through a significant transformation in the recent years from high-end supercomputers used only for scientific applications to the multi-cores (multiple processing cores on a single chip) that are ubiquitous in mainstream computing systems including desktops, servers, and embedded systems.</t>
+  </si>
+  <si>
+    <t>Compiler Design</t>
+  </si>
+  <si>
+    <t>The objective of this module is to introduce the principal ideas behind program compilation, and discusses various techniques for program parsing, program analysis, program optimisation, and run-time organisation required for program execution.</t>
+  </si>
+  <si>
+    <t>Formal Methods for Software Engineering</t>
+  </si>
+  <si>
+    <t>This module will cover formal specification and verification techniques for accurately capturing and reasoning about requirements, model and code.</t>
   </si>
   <si>
     <t>cid</t>
@@ -456,7 +541,7 @@
     <t>area</t>
   </si>
   <si>
-    <t>Xiao Ming</t>
+    <t>Severus Snape</t>
   </si>
   <si>
     <t>xm@gmail.com</t>
@@ -468,7 +553,7 @@
     <t>Changyang Street</t>
   </si>
   <si>
-    <t>Xiao Wang</t>
+    <t>Luna Lovegood</t>
   </si>
   <si>
     <t>xw@gmail.com</t>
@@ -480,7 +565,7 @@
     <t>Sanxing Street</t>
   </si>
   <si>
-    <t>Xiao Zhang</t>
+    <t>Albus Dumbledore</t>
   </si>
   <si>
     <t>xz@gmail.com</t>
@@ -492,7 +577,7 @@
     <t>Yangpu Street</t>
   </si>
   <si>
-    <t>Zhang Fei</t>
+    <t>Dobby</t>
   </si>
   <si>
     <t>abc123@gmail.com</t>
@@ -504,7 +589,7 @@
     <t>Shu Street</t>
   </si>
   <si>
-    <t>Liu Bei</t>
+    <t>Gellert Grindelwald</t>
   </si>
   <si>
     <t>aaa123@gmail.com</t>
@@ -513,7 +598,7 @@
     <t>(+86) 11111115</t>
   </si>
   <si>
-    <t>Guan Yu</t>
+    <t>Remus Lupin</t>
   </si>
   <si>
     <t>xyz999@gmail.com</t>
@@ -522,7 +607,7 @@
     <t>(+86) 11111116</t>
   </si>
   <si>
-    <t>Cao Cao</t>
+    <t>Ron Weasley</t>
   </si>
   <si>
     <t>qwq123@gmail.com</t>
@@ -534,7 +619,7 @@
     <t>Wei Street</t>
   </si>
   <si>
-    <t>Sun Quan</t>
+    <t>Fred Weasley</t>
   </si>
   <si>
     <t>www123@gmail.com</t>
@@ -546,7 +631,7 @@
     <t>Wu Street</t>
   </si>
   <si>
-    <t>Ling Daiyu</t>
+    <t>Ginny Weasley</t>
   </si>
   <si>
     <t>ld@gmail.com</t>
@@ -558,7 +643,7 @@
     <t>Daguanyuan Street</t>
   </si>
   <si>
-    <t>Jia Baoyu</t>
+    <t>Pansy Parkinson</t>
   </si>
   <si>
     <t>abcd@gmail.com</t>
@@ -567,6 +652,102 @@
     <t>(+86) 11111120</t>
   </si>
   <si>
+    <t>Voldemort</t>
+  </si>
+  <si>
+    <t>(+86) 11111121</t>
+  </si>
+  <si>
+    <t>Diagon Ally</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>(+86) 11111122</t>
+  </si>
+  <si>
+    <t>Hogwarts</t>
+  </si>
+  <si>
+    <t>Draco Malfoy</t>
+  </si>
+  <si>
+    <t>(+86) 11111123</t>
+  </si>
+  <si>
+    <t>Cedric Diggory</t>
+  </si>
+  <si>
+    <t>(+86) 11111124</t>
+  </si>
+  <si>
+    <t>Cho Chang</t>
+  </si>
+  <si>
+    <t>(+86) 11111125</t>
+  </si>
+  <si>
+    <t>Sirius Black</t>
+  </si>
+  <si>
+    <t>(+86) 11111126</t>
+  </si>
+  <si>
+    <t>James Potter</t>
+  </si>
+  <si>
+    <t>(+86) 11111127</t>
+  </si>
+  <si>
+    <t>Lily Potter</t>
+  </si>
+  <si>
+    <t>(+86) 11111128</t>
+  </si>
+  <si>
+    <t>Oliver Wood</t>
+  </si>
+  <si>
+    <t>(+86) 11111129</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>(+86) 11111130</t>
+  </si>
+  <si>
+    <t>Newt Scamander</t>
+  </si>
+  <si>
+    <t>(+86) 11111131</t>
+  </si>
+  <si>
+    <t>Dudley Dursley</t>
+  </si>
+  <si>
+    <t>(+86) 11111132</t>
+  </si>
+  <si>
+    <t>George Weasley</t>
+  </si>
+  <si>
+    <t>(+86) 11111133</t>
+  </si>
+  <si>
+    <t>Molly Weasley</t>
+  </si>
+  <si>
+    <t>(+86) 11111134</t>
+  </si>
+  <si>
+    <t>Dean Thomas</t>
+  </si>
+  <si>
+    <t>(+86) 11111135</t>
+  </si>
+  <si>
     <t>card_no</t>
   </si>
   <si>
@@ -579,31 +760,76 @@
     <t>A123456789012</t>
   </si>
   <si>
+    <t>A123456789013</t>
+  </si>
+  <si>
+    <t>A123456789014</t>
+  </si>
+  <si>
+    <t>A123456789015</t>
+  </si>
+  <si>
+    <t>A123456789016</t>
+  </si>
+  <si>
+    <t>A123456789017</t>
+  </si>
+  <si>
+    <t>A123456789018</t>
+  </si>
+  <si>
+    <t>A123456789019</t>
+  </si>
+  <si>
+    <t>A123456789020</t>
+  </si>
+  <si>
+    <t>A123456789021</t>
+  </si>
+  <si>
+    <t>A123456789022</t>
+  </si>
+  <si>
+    <t>A123456789023</t>
+  </si>
+  <si>
+    <t>A123456789024</t>
+  </si>
+  <si>
+    <t>A123456789025</t>
+  </si>
+  <si>
+    <t>A123456789026</t>
+  </si>
+  <si>
+    <t>A123456789027</t>
+  </si>
+  <si>
+    <t>A123456789028</t>
+  </si>
+  <si>
+    <t>A123456789029</t>
+  </si>
+  <si>
+    <t>A123456789030</t>
+  </si>
+  <si>
+    <t>A123456789031</t>
+  </si>
+  <si>
+    <t>A123456789032</t>
+  </si>
+  <si>
     <t>A123456789033</t>
   </si>
   <si>
-    <t>A123456789014</t>
-  </si>
-  <si>
-    <t>A123456789015</t>
-  </si>
-  <si>
-    <t>A123456789016</t>
-  </si>
-  <si>
-    <t>A123456789017</t>
-  </si>
-  <si>
-    <t>A123456789018</t>
-  </si>
-  <si>
-    <t>A123456789019</t>
-  </si>
-  <si>
-    <t>A123456789020</t>
-  </si>
-  <si>
-    <t>A123456789021</t>
+    <t>A123456789034</t>
+  </si>
+  <si>
+    <t>A123456789035</t>
+  </si>
+  <si>
+    <t>A123456789036</t>
   </si>
   <si>
     <t>from_date</t>
@@ -636,6 +862,18 @@
     <t xml:space="preserve">Te Hui </t>
   </si>
   <si>
+    <t>HAPPY NEW YEAR</t>
+  </si>
+  <si>
+    <t>HAPPY NEW MONTH</t>
+  </si>
+  <si>
+    <t>HAPPY APRIL FOOLS</t>
+  </si>
+  <si>
+    <t>ARE YOU HAPPY</t>
+  </si>
+  <si>
     <t>remaining_redemptions</t>
   </si>
   <si>
@@ -649,43 +887,17 @@
   </si>
   <si>
     <t>pkg_credit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This module introduces physics students to the fundamental aspects of fluid dynamics. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">An examination of conflict of laws issues in the context of maritime law and admiralty litigation. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This module is a first course in linear algebra. Fundamental concepts of linear algebra will be introduced and investigated in the context of the Euclidean spaces R^n. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is a course in single-variable calculus. </t>
-  </si>
-  <si>
-    <t>This module is an introduction to the quantum description of the electromagnetic field, with a special focus on phenomena at optical frequencies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This module explores language structure, in particular, patterns of sentence structure (syntax) and of meaning (semantics) in English. </t>
-  </si>
-  <si>
-    <t>HAPPY NEW YEAR</t>
-  </si>
-  <si>
-    <t>HAPPY NEW MONTH</t>
-  </si>
-  <si>
-    <t>HAPPY APRIL FOOLS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -695,37 +907,30 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF69707A"/>
+      <name val="-apple-system"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -734,6 +939,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -747,14 +958,15 @@
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -766,31 +978,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,20 +1236,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,11 +1275,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1061,15 +1291,15 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>42008</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1081,18 +1311,18 @@
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>43101</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>43805</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1104,15 +1334,15 @@
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>42976</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1124,11 +1354,11 @@
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>42372</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1144,15 +1374,15 @@
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>39451</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1161,218 +1391,308 @@
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
         <v>43470</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3">
         <v>39819</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>44260</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>34</v>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="2">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3">
         <v>43107</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="3">
         <v>43838</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>41</v>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3">
         <v>41648</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3">
         <v>43662</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>44085</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="2">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3">
         <v>43926</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>44262</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>55</v>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="2">
+        <v>50</v>
+      </c>
+      <c r="F15" s="3">
         <v>44283</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>58</v>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="2">
+        <v>63</v>
+      </c>
+      <c r="F16" s="3">
         <v>43538</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>62</v>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="3">
         <v>43008</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>43191</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="5">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="5">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43864</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1381,250 +1701,264 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
+      <c r="B2" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
+      <c r="B3" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="C3" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
+      <c r="B4" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="C5" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
+      <c r="B6" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
+      <c r="B7" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
+      <c r="B8" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C8" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
+      <c r="B9" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>82</v>
+      <c r="B10" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
+      <c r="B11" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>84</v>
+      <c r="B12" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
+      <c r="B13" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C13" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
+      <c r="B14" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="C14" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
+      <c r="B15" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="C15" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>88</v>
+      <c r="B16" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="C16" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
+      <c r="B17" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>90</v>
+      <c r="B18" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="C18" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
+      <c r="B19" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>92</v>
+      <c r="B20" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="C20" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>93</v>
+      <c r="B21" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="C21" s="1">
         <v>80</v>
       </c>
     </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1633,91 +1967,109 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>102</v>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>103</v>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1729,208 +2081,208 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="B4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="B5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="B7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="B8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="B10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="7">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
+      <c r="B11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
-    <hyperlink ref="B9" r:id="rId2" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0B00-000002000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1939,57 +2291,60 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="164" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44075</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>44105</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>44109</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>44094</v>
       </c>
       <c r="F2" s="1">
@@ -2005,20 +2360,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44109</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>44166</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>44185</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>44150</v>
       </c>
       <c r="F3" s="1">
@@ -2034,26 +2389,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44197</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>44228</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>44229</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>44211</v>
       </c>
       <c r="F4" s="1">
         <v>50</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="1">
         <v>80</v>
       </c>
       <c r="H4" s="1">
@@ -2063,26 +2418,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>44265</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>44295</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>44301</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>44285</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="1">
         <v>80</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="1">
         <v>100</v>
       </c>
       <c r="H5" s="1">
@@ -2092,20 +2447,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>44075</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>44105</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>44109</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>44094</v>
       </c>
       <c r="F6" s="1">
@@ -2121,20 +2476,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>44265</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>44295</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>44301</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>44285</v>
       </c>
       <c r="F7" s="1">
@@ -2150,20 +2505,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>43952</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>43983</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>43992</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>43971</v>
       </c>
       <c r="F8" s="1">
@@ -2179,20 +2534,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>44197</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>44228</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>44230</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>44211</v>
       </c>
       <c r="F9" s="1">
@@ -2208,20 +2563,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>44265</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>44295</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>44301</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>44285</v>
       </c>
       <c r="F10" s="1">
@@ -2237,20 +2592,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>44229</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>44252</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>44253</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>44242</v>
       </c>
       <c r="F11" s="1">
@@ -2266,20 +2621,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>44285</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>44333</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>44347</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>44323</v>
       </c>
       <c r="F12" s="1">
@@ -2295,20 +2650,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>44197</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>44228</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>44228</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>44216</v>
       </c>
       <c r="F13" s="1">
@@ -2320,24 +2675,24 @@
       <c r="H13" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="I13" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I13" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>44228</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>44256</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>44256</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>44245</v>
       </c>
       <c r="F14" s="1">
@@ -2349,24 +2704,24 @@
       <c r="H14" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="I14" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>44256</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>44287</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>44287</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>44275</v>
       </c>
       <c r="F15" s="1">
@@ -2378,24 +2733,24 @@
       <c r="H15" s="1">
         <v>79.900000000000006</v>
       </c>
-      <c r="I15" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>44285</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>44326</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>44326</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <v>44316</v>
       </c>
       <c r="F16" s="1">
@@ -2407,24 +2762,24 @@
       <c r="H16" s="1">
         <v>49.9</v>
       </c>
-      <c r="I16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="15">
         <v>44316</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="15">
         <v>44348</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="15">
         <v>44382</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="15">
         <v>44322</v>
       </c>
       <c r="F17" s="1">
@@ -2436,12 +2791,42 @@
       <c r="H17" s="1">
         <v>125.8</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
         <v>10</v>
       </c>
+      <c r="B18" s="16">
+        <v>44256</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44291</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44316</v>
+      </c>
+      <c r="E18" s="5">
+        <v>44270</v>
+      </c>
+      <c r="F18" s="4">
+        <v>10</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I18" s="4">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -2450,51 +2835,54 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>44075</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>44105</v>
       </c>
       <c r="E2" s="1">
@@ -2510,17 +2898,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>44075</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>44109</v>
       </c>
       <c r="E3" s="1">
@@ -2536,17 +2924,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>44109</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>44166</v>
       </c>
       <c r="E4" s="1">
@@ -2562,17 +2950,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>44109</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>44183</v>
       </c>
       <c r="E5" s="1">
@@ -2588,17 +2976,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>44197</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>44228</v>
       </c>
       <c r="E6" s="1">
@@ -2610,21 +2998,21 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>44197</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>44229</v>
       </c>
       <c r="E7" s="1">
@@ -2636,73 +3024,73 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
+      <c r="A8" s="17">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="18">
         <v>44265</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="17">
         <v>1</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="18">
         <v>44295</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="17">
         <v>14</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="17">
         <v>17</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="17">
         <v>11</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="17">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
+      <c r="A9" s="19">
         <v>3</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="20">
         <v>44265</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="19">
         <v>2</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="20">
         <v>44301</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="19">
         <v>14</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="19">
         <v>17</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="19">
         <v>11</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>44075</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>44105</v>
       </c>
       <c r="E10" s="1">
@@ -2718,17 +3106,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>44075</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>44109</v>
       </c>
       <c r="E11" s="1">
@@ -2744,69 +3132,69 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="18">
         <v>44265</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="17">
         <v>1</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="18">
         <v>44295</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="17">
         <v>15</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="17">
         <v>17</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="17">
         <v>5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="17">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="19">
         <v>4</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="20">
         <v>44265</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="19">
         <v>2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="20">
         <v>44301</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="19">
         <v>16</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="19">
         <v>18</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="19">
         <v>4</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="19">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>43952</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>43983</v>
       </c>
       <c r="E14" s="1">
@@ -2822,17 +3210,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>5</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>43952</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>43992</v>
       </c>
       <c r="E15" s="1">
@@ -2848,17 +3236,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>44197</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>44228</v>
       </c>
       <c r="E16" s="1">
@@ -2874,17 +3262,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>44197</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>44230</v>
       </c>
       <c r="E17" s="1">
@@ -2900,69 +3288,69 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="17">
         <v>5</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="18">
         <v>44265</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="17">
         <v>1</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="18">
         <v>44295</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="17">
         <v>14</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="17">
         <v>15.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="17">
         <v>12</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="19">
         <v>5</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="20">
         <v>44265</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="19">
         <v>2</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="20">
         <v>44301</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="19">
         <v>15.5</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="19">
         <v>17</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="19">
         <v>12</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>44229</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>44252</v>
       </c>
       <c r="E20" s="1">
@@ -2978,17 +3366,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>44229</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>44253</v>
       </c>
       <c r="E21" s="1">
@@ -3004,17 +3392,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>44285</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>44333</v>
       </c>
       <c r="E22" s="1">
@@ -3030,17 +3418,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>44285</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>44336</v>
       </c>
       <c r="E23" s="1">
@@ -3056,17 +3444,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>7</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>44285</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="14">
         <v>44347</v>
       </c>
       <c r="E24" s="1">
@@ -3082,17 +3470,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>8</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>44197</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>44228</v>
       </c>
       <c r="E25" s="1">
@@ -3108,17 +3496,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>8</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>44228</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>44256</v>
       </c>
       <c r="E26" s="1">
@@ -3134,17 +3522,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>8</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>44256</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>44287</v>
       </c>
       <c r="E27" s="1">
@@ -3160,17 +3548,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>5</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>44285</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>44326</v>
       </c>
       <c r="E28" s="1">
@@ -3186,17 +3574,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="15">
         <v>44316</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="15">
         <v>44369</v>
       </c>
       <c r="E29" s="1">
@@ -3212,620 +3600,1679 @@
         <v>15</v>
       </c>
     </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="4">
+        <v>10</v>
+      </c>
+      <c r="B30" s="16">
+        <v>44256</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>44291</v>
+      </c>
+      <c r="E30" s="4">
+        <v>14</v>
+      </c>
+      <c r="F30" s="4">
+        <v>18</v>
+      </c>
+      <c r="G30" s="4">
+        <v>15</v>
+      </c>
+      <c r="H30" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="21">
+        <v>10</v>
+      </c>
+      <c r="B31" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <v>44292</v>
+      </c>
+      <c r="E31" s="4">
+        <v>14</v>
+      </c>
+      <c r="F31" s="4">
+        <v>18</v>
+      </c>
+      <c r="G31" s="4">
+        <v>15</v>
+      </c>
+      <c r="H31" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="21">
+        <v>10</v>
+      </c>
+      <c r="B32" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5">
+        <v>44293</v>
+      </c>
+      <c r="E32" s="4">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4">
+        <v>18</v>
+      </c>
+      <c r="G32" s="4">
+        <v>15</v>
+      </c>
+      <c r="H32" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="21">
+        <v>10</v>
+      </c>
+      <c r="B33" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C33" s="4">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5">
+        <v>44294</v>
+      </c>
+      <c r="E33" s="4">
+        <v>14</v>
+      </c>
+      <c r="F33" s="4">
+        <v>18</v>
+      </c>
+      <c r="G33" s="4">
+        <v>15</v>
+      </c>
+      <c r="H33" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="21">
+        <v>10</v>
+      </c>
+      <c r="B34" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C34" s="4">
+        <v>5</v>
+      </c>
+      <c r="D34" s="5">
+        <v>44295</v>
+      </c>
+      <c r="E34" s="4">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4">
+        <v>18</v>
+      </c>
+      <c r="G34" s="4">
+        <v>15</v>
+      </c>
+      <c r="H34" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="21">
+        <v>10</v>
+      </c>
+      <c r="B35" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C35" s="4">
+        <v>6</v>
+      </c>
+      <c r="D35" s="5">
+        <v>44312</v>
+      </c>
+      <c r="E35" s="4">
+        <v>14</v>
+      </c>
+      <c r="F35" s="4">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4">
+        <v>15</v>
+      </c>
+      <c r="H35" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="21">
+        <v>10</v>
+      </c>
+      <c r="B36" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5">
+        <v>44313</v>
+      </c>
+      <c r="E36" s="4">
+        <v>14</v>
+      </c>
+      <c r="F36" s="4">
+        <v>18</v>
+      </c>
+      <c r="G36" s="4">
+        <v>15</v>
+      </c>
+      <c r="H36" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="21">
+        <v>10</v>
+      </c>
+      <c r="B37" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C37" s="4">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5">
+        <v>44314</v>
+      </c>
+      <c r="E37" s="4">
+        <v>14</v>
+      </c>
+      <c r="F37" s="4">
+        <v>18</v>
+      </c>
+      <c r="G37" s="4">
+        <v>17</v>
+      </c>
+      <c r="H37" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="21">
+        <v>10</v>
+      </c>
+      <c r="B38" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C38" s="4">
+        <v>9</v>
+      </c>
+      <c r="D38" s="5">
+        <v>44315</v>
+      </c>
+      <c r="E38" s="4">
+        <v>14</v>
+      </c>
+      <c r="F38" s="4">
+        <v>18</v>
+      </c>
+      <c r="G38" s="4">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="21">
+        <v>10</v>
+      </c>
+      <c r="B39" s="22">
+        <v>44256</v>
+      </c>
+      <c r="C39" s="4">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
+        <v>44316</v>
+      </c>
+      <c r="E39" s="4">
+        <v>14</v>
+      </c>
+      <c r="F39" s="4">
+        <v>18</v>
+      </c>
+      <c r="G39" s="4">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0F4D58-5DF1-D94E-8AC0-995DFE1FEE00}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="B12" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="B13" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="B14" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="B15" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="B16" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>103</v>
+      <c r="B17" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="3">
+        <v>45476</v>
+      </c>
+      <c r="C2" s="1">
         <v>123</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>170</v>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45477</v>
+      </c>
+      <c r="C3" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45478</v>
+      </c>
+      <c r="C4" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45479</v>
+      </c>
+      <c r="C5" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45480</v>
+      </c>
+      <c r="C6" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45481</v>
+      </c>
+      <c r="C7" s="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45482</v>
+      </c>
+      <c r="C8" s="1">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45483</v>
+      </c>
+      <c r="C9" s="1">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45484</v>
+      </c>
+      <c r="C10" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45485</v>
+      </c>
+      <c r="C11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="5">
+        <v>72812</v>
+      </c>
+      <c r="C12" s="4">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" s="5">
+        <v>45421</v>
+      </c>
+      <c r="C13" s="23">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B14" s="5">
+        <v>45422</v>
+      </c>
+      <c r="C14" s="23">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="5">
+        <v>45423</v>
+      </c>
+      <c r="C15" s="23">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="5">
+        <v>45424</v>
+      </c>
+      <c r="C16" s="23">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="5">
+        <v>45425</v>
+      </c>
+      <c r="C17" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="5">
+        <v>45426</v>
+      </c>
+      <c r="C18" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B19" s="5">
+        <v>45427</v>
+      </c>
+      <c r="C19" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45428</v>
+      </c>
+      <c r="C20" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45429</v>
+      </c>
+      <c r="C21" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45430</v>
+      </c>
+      <c r="C22" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45431</v>
+      </c>
+      <c r="C23" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45432</v>
+      </c>
+      <c r="C24" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45433</v>
+      </c>
+      <c r="C25" s="4">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45434</v>
+      </c>
+      <c r="C26" s="4">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45476</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45477</v>
-      </c>
-      <c r="C3" s="1">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45478</v>
-      </c>
-      <c r="C4" s="1">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45479</v>
-      </c>
-      <c r="C5" s="1">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45480</v>
-      </c>
-      <c r="C6" s="1">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45481</v>
-      </c>
-      <c r="C7" s="1">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45482</v>
-      </c>
-      <c r="C8" s="1">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45483</v>
-      </c>
-      <c r="C9" s="1">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45484</v>
-      </c>
-      <c r="C10" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45485</v>
-      </c>
-      <c r="C11" s="7">
-        <v>100</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="3">
+        <v>43655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43658</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="5">
+        <v>43834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="5">
+        <v>43835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="5">
+        <v>43836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C16" s="5">
+        <v>43837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="5">
+        <v>43838</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="5">
+        <v>43839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C19" s="5">
+        <v>43840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="5">
+        <v>43841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="5">
+        <v>43842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="5">
+        <v>43843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43844</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="5">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="5">
+        <v>43846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="5">
+        <v>43847</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42527</v>
+      </c>
+      <c r="D2" s="3">
+        <v>42730</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43320</v>
+      </c>
+      <c r="D3" s="3">
+        <v>46973</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="1">
         <v>178</v>
       </c>
-      <c r="C3" s="2">
-        <v>43650</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43466</v>
+      </c>
+      <c r="D4" s="3">
+        <v>47483</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43652</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44197</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44594</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43653</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44228</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44531</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44256</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44532</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" s="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="2">
-        <v>43655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44287</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44533</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="2">
-        <v>43656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C10" s="2">
-        <v>43657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44229</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44470</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C11" s="2">
-        <v>43658</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -3834,23 +5281,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3858,7 +5308,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3866,7 +5316,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3874,7 +5324,7 @@
         <v>8888</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3882,7 +5332,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3890,7 +5340,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3898,7 +5348,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3906,7 +5356,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3914,7 +5364,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3922,7 +5372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3930,594 +5380,522 @@
         <v>1987</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1790</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42527</v>
-      </c>
-      <c r="D2" s="2">
-        <v>42730</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="1">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="3">
+        <v>42528</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43320</v>
-      </c>
-      <c r="D3" s="2">
-        <v>46973</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="1">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43381</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44197</v>
+      </c>
+      <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="C4" s="2">
-        <v>43466</v>
-      </c>
-      <c r="D4" s="2">
-        <v>47483</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F4" s="1">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="3">
         <v>44197</v>
       </c>
-      <c r="D5" s="2">
-        <v>44594</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44197</v>
+      </c>
+      <c r="D6" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43321</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44288</v>
+      </c>
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
-        <v>44228</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44531</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="1">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44288</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44288</v>
+      </c>
+      <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <v>44256</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44532</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="1">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44288</v>
+      </c>
+      <c r="D11" s="1">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>44287</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44533</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F8" s="1">
-        <v>233</v>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="5">
+        <v>44230</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44230</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="127" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43381</v>
+      </c>
+      <c r="D2" s="7">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44229</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="2">
-        <v>42528</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="G2" s="3">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="18">
+        <v>43381</v>
+      </c>
+      <c r="D3" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="E3" s="18">
+        <v>44075</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="3">
         <v>43381</v>
       </c>
-      <c r="D3" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
         <v>44197</v>
       </c>
-      <c r="D4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="3">
         <v>44197</v>
       </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="17">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18">
+        <v>44265</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44197</v>
+        <v>236</v>
+      </c>
+      <c r="C6" s="3">
+        <v>42528</v>
       </c>
       <c r="D6" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>44265</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43321</v>
+        <v>240</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43381</v>
       </c>
       <c r="D7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="3">
+        <v>44197</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="24">
+        <v>44214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44288</v>
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44197</v>
       </c>
       <c r="D8" s="1">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>44228</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>44245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C9" s="3">
+        <v>42528</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="14">
+        <v>44256</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>44273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44230</v>
+      </c>
+      <c r="D10" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44288</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="E10" s="16">
+        <v>44256</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44230</v>
+      </c>
+      <c r="D11" s="21">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44288</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="E11" s="22">
+        <v>44256</v>
+      </c>
+      <c r="F11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44288</v>
-      </c>
-      <c r="D11" s="1">
-        <v>15</v>
+      <c r="G11" s="5">
+        <v>44266</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="2">
-        <v>43381</v>
-      </c>
-      <c r="D2" s="3">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>44229</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="19">
-        <v>43381</v>
-      </c>
-      <c r="D3" s="18">
-        <v>4</v>
-      </c>
-      <c r="E3" s="19">
-        <v>44075</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1</v>
-      </c>
-      <c r="G3" s="19">
-        <v>44084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43381</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44197</v>
-      </c>
-      <c r="D5" s="8">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>44265</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
-        <v>44285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="2">
-        <v>42528</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44265</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43381</v>
-      </c>
-      <c r="D7" s="1">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44197</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>44216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44197</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44228</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>44245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="2">
-        <v>42528</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-      <c r="E9" s="16">
-        <v>44256</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="2">
-        <v>44273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4525,236 +5903,243 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>44075</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="3">
         <v>44094</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>178</v>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>44109</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>44136</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="3">
+        <v>245</v>
+      </c>
+      <c r="B4" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="18">
         <v>44265</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="18">
         <v>44273</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5" s="11">
+        <v>239</v>
+      </c>
+      <c r="B5" s="19">
         <v>5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="20">
         <v>44265</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="19">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="20">
         <v>44270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>44285</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>44296</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>44285</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>44297</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>44228</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>44229</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>44256</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>44258</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>179</v>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="25" t="s">
+        <v>238</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>44256</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>44258</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>44075</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="3">
         <v>44102</v>
       </c>
       <c r="F2" s="1">
@@ -4764,20 +6149,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>44075</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>44086</v>
       </c>
       <c r="F3" s="1">
@@ -4787,31 +6172,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>44256</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>44285</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="26">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="26">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -4820,23 +6206,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -4844,7 +6233,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -4852,7 +6241,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -4860,7 +6249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -4868,7 +6257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -4876,7 +6265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -4884,8 +6273,17 @@
         <v>86</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="4">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -4894,74 +6292,90 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -4970,44 +6384,55 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A7" s="4">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -5016,49 +6441,60 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A8" s="4">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -5067,29 +6503,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A4" s="4">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -5098,34 +6545,45 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A5" s="4">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -5136,28 +6594,34 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3B60134C-9A6F-264A-BCBC-32941F5018EE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2EAADB1-C256-0D49-8AA5-3270E169551F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -931,6 +931,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -978,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1017,7 +1023,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1238,7 +1245,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -5417,8 +5424,8 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5445,170 +5452,170 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="27">
         <v>42528</v>
       </c>
-      <c r="D2" s="1">
-        <v>4</v>
+      <c r="D2" s="26">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="27">
         <v>43381</v>
       </c>
-      <c r="D3" s="1">
-        <v>4</v>
+      <c r="D3" s="26">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="27">
         <v>44197</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="27">
         <v>44197</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="27">
         <v>44197</v>
       </c>
-      <c r="D6" s="1">
-        <v>18</v>
+      <c r="D6" s="26">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
+      <c r="A7" s="26">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="27">
         <v>43321</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="27">
         <v>44288</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
+      <c r="A9" s="26">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="27">
         <v>44288</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
+      <c r="A10" s="26">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="27">
         <v>44288</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="26">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
+      <c r="A11" s="26">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="27">
         <v>44288</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="26">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="26">
         <v>8</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="27">
         <v>44230</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="26">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="27">
         <v>44230</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="26">
         <v>1</v>
       </c>
     </row>
@@ -6095,7 +6102,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E6" sqref="E4:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6127,48 +6134,48 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="26">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="27">
         <v>44075</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="26">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="27">
         <v>44102</v>
       </c>
-      <c r="F2" s="1">
-        <v>39.9</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="F2" s="26">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="G2" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
+      <c r="A3" s="26">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="26">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="27">
         <v>44075</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="26">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="27">
         <v>44086</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="26">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="26">
         <v>1</v>
       </c>
     </row>
@@ -6176,16 +6183,16 @@
       <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="26">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="27">
         <v>44256</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="26">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="27">
         <v>44285</v>
       </c>
       <c r="F4" s="26">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzaza/Desktop/cs2103-projects/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2EAADB1-C256-0D49-8AA5-3270E169551F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80507B29-A40C-3C4F-8374-089D77A71B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,10 @@
     <sheet name="Pay_slips" sheetId="9" r:id="rId9"/>
     <sheet name="Rooms" sheetId="10" r:id="rId10"/>
     <sheet name="Course_areas" sheetId="11" r:id="rId11"/>
-    <sheet name="Courses" sheetId="12" r:id="rId12"/>
-    <sheet name="Offerings" sheetId="13" r:id="rId13"/>
-    <sheet name="Sessions" sheetId="14" r:id="rId14"/>
-    <sheet name="Specializes" sheetId="15" r:id="rId15"/>
+    <sheet name="Specializes" sheetId="15" r:id="rId12"/>
+    <sheet name="Courses" sheetId="12" r:id="rId13"/>
+    <sheet name="Offerings" sheetId="13" r:id="rId14"/>
+    <sheet name="Sessions" sheetId="14" r:id="rId15"/>
     <sheet name="Customers" sheetId="16" r:id="rId16"/>
     <sheet name="Credit_cards" sheetId="17" r:id="rId17"/>
     <sheet name="Owns" sheetId="18" r:id="rId18"/>
@@ -1245,8 +1245,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1322,7 +1322,7 @@
         <v>43101</v>
       </c>
       <c r="G3" s="3">
-        <v>43805</v>
+        <v>44292</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -2081,6 +2081,142 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>13</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2293,7 +2429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2837,15 +2973,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3865,142 +4001,6 @@
       </c>
       <c r="H39" s="4">
         <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
-    <col min="3" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>12</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>15</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>16</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5424,7 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenzaza/Desktop/cs2103-projects/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80507B29-A40C-3C4F-8374-089D77A71B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F7B27-1B76-554E-9C4F-C1B20EC681B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15540" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15540" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -964,6 +964,12 @@
         <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -984,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1025,6 +1031,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1245,8 +1259,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2088,7 +2102,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2224,7 +2238,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2980,8 +2994,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3139,7 +3153,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>8</v>
@@ -3165,7 +3179,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>8</v>
@@ -3191,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="17">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H8" s="17">
         <v>3</v>
@@ -3217,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H9" s="19">
         <v>3</v>
@@ -3243,7 +3257,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
         <v>16</v>
@@ -3295,7 +3309,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="17">
         <v>16</v>
@@ -3347,7 +3361,7 @@
         <v>10.5</v>
       </c>
       <c r="G14" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <v>20</v>
@@ -3373,7 +3387,7 @@
         <v>11.5</v>
       </c>
       <c r="G15" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1">
         <v>19</v>
@@ -3399,7 +3413,7 @@
         <v>16.5</v>
       </c>
       <c r="G16" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H16" s="1">
         <v>20</v>
@@ -3425,7 +3439,7 @@
         <v>16.5</v>
       </c>
       <c r="G17" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1">
         <v>19</v>
@@ -3451,7 +3465,7 @@
         <v>15.5</v>
       </c>
       <c r="G18" s="17">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H18" s="17">
         <v>20</v>
@@ -3477,7 +3491,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H19" s="19">
         <v>18</v>
@@ -3503,7 +3517,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1">
         <v>20</v>
@@ -3529,7 +3543,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1">
         <v>19</v>
@@ -3555,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1">
         <v>7</v>
@@ -3581,7 +3595,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1">
         <v>7</v>
@@ -3607,7 +3621,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H24" s="1">
         <v>7</v>
@@ -3633,7 +3647,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1">
         <v>4</v>
@@ -3659,7 +3673,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H26" s="1">
         <v>4</v>
@@ -3685,7 +3699,7 @@
         <v>15</v>
       </c>
       <c r="G27" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" s="1">
         <v>4</v>
@@ -3711,7 +3725,7 @@
         <v>10.5</v>
       </c>
       <c r="G28" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H28" s="1">
         <v>15</v>
@@ -3737,7 +3751,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>15</v>
@@ -3848,28 +3862,28 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="21">
+      <c r="A34" s="28">
         <v>10</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="29">
         <v>44256</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="30">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="31">
         <v>44295</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="30">
         <v>14</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="30">
         <v>18</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="30">
         <v>15</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="30">
         <v>21</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F7B27-1B76-554E-9C4F-C1B20EC681B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB650F-8EC9-AD44-9BB9-0C0775FFE68F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="15540" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2995,7 +2995,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="17">
         <v>3</v>
@@ -3231,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="19">
         <v>3</v>
@@ -3751,7 +3751,7 @@
         <v>17</v>
       </c>
       <c r="G29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
         <v>15</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47AB650F-8EC9-AD44-9BB9-0C0775FFE68F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98C9FCB2-0D29-A448-9C4A-940F056BA4C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -907,16 +907,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -931,6 +934,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -990,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1039,6 +1043,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,8 +1264,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1627,9 +1632,7 @@
       <c r="F17" s="3">
         <v>43008</v>
       </c>
-      <c r="G17" s="3">
-        <v>43191</v>
-      </c>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="4">
@@ -1709,6 +1712,9 @@
       </c>
       <c r="F21" s="5">
         <v>43864</v>
+      </c>
+      <c r="G21" s="32">
+        <v>44295</v>
       </c>
     </row>
   </sheetData>
@@ -2994,8 +3000,8 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6465,7 +6471,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD1048576"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{98C9FCB2-0D29-A448-9C4A-940F056BA4C8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A8AAF1-3D10-8948-B82A-99E5D74ED28E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -907,19 +907,16 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -934,7 +931,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -994,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1043,7 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1265,7 +1260,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1403,6 +1398,9 @@
       <c r="F6" s="3">
         <v>39451</v>
       </c>
+      <c r="G6" s="3">
+        <v>44262</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
@@ -1569,9 +1567,6 @@
       <c r="F14" s="3">
         <v>43926</v>
       </c>
-      <c r="G14" s="3">
-        <v>44262</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="1">
@@ -1632,7 +1627,6 @@
       <c r="F17" s="3">
         <v>43008</v>
       </c>
-      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="4">
@@ -1713,7 +1707,7 @@
       <c r="F21" s="5">
         <v>43864</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="3">
         <v>44295</v>
       </c>
     </row>
@@ -2108,7 +2102,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3001,7 +2995,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3367,7 +3361,7 @@
         <v>10.5</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1">
         <v>20</v>
@@ -6471,7 +6465,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A9" sqref="A9:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A8AAF1-3D10-8948-B82A-99E5D74ED28E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D091FB-B784-744C-852E-AC1D470E5098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -1259,7 +1259,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1725,7 +1725,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD1048576"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2238,7 +2238,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2450,8 +2450,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2566,7 +2566,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H4" s="1">
         <v>39.9</v>
@@ -2914,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H16" s="1">
         <v>49.9</v>
@@ -2931,10 +2931,10 @@
         <v>44316</v>
       </c>
       <c r="C17" s="15">
-        <v>44348</v>
+        <v>44369</v>
       </c>
       <c r="D17" s="15">
-        <v>44382</v>
+        <v>44369</v>
       </c>
       <c r="E17" s="15">
         <v>44322</v>
@@ -2943,7 +2943,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="H17" s="1">
         <v>125.8</v>
@@ -2995,7 +2995,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3745,7 +3745,7 @@
         <v>44369</v>
       </c>
       <c r="E29" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1">
         <v>17</v>
@@ -4790,7 +4790,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -5101,7 +5101,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5439,7 +5439,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5647,7 +5647,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5924,7 +5924,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6116,7 +6116,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E4:I6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D091FB-B784-744C-852E-AC1D470E5098}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF396B0-116D-3347-994E-1680DF48CC70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="280">
   <si>
     <t>eid</t>
   </si>
@@ -1260,7 +1260,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1313,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="3">
-        <v>42008</v>
+        <v>43104</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
@@ -1483,7 +1483,7 @@
         <v>42</v>
       </c>
       <c r="F10" s="3">
-        <v>43838</v>
+        <v>43108</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
@@ -1524,7 +1524,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="3">
-        <v>43662</v>
+        <v>43297</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1545,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="F13" s="3">
-        <v>44085</v>
+        <v>43354</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
@@ -1565,7 +1565,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="3">
-        <v>43926</v>
+        <v>43195</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
@@ -1585,7 +1585,7 @@
         <v>50</v>
       </c>
       <c r="F15" s="3">
-        <v>44283</v>
+        <v>43187</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
@@ -1645,7 +1645,7 @@
         <v>71</v>
       </c>
       <c r="F18" s="5">
-        <v>44166</v>
+        <v>43435</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
@@ -1665,7 +1665,7 @@
         <v>75</v>
       </c>
       <c r="F19" s="5">
-        <v>43922</v>
+        <v>43191</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
@@ -1685,7 +1685,7 @@
         <v>79</v>
       </c>
       <c r="F20" s="5">
-        <v>43928</v>
+        <v>43197</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
@@ -1705,7 +1705,7 @@
         <v>83</v>
       </c>
       <c r="F21" s="5">
-        <v>43864</v>
+        <v>43134</v>
       </c>
       <c r="G21" s="3">
         <v>44295</v>
@@ -1725,7 +1725,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2448,10 +2448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2978,6 +2978,35 @@
         <v>79.900000000000006</v>
       </c>
       <c r="I18" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="15">
+        <v>43573</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43591</v>
+      </c>
+      <c r="D19" s="15">
+        <v>43591</v>
+      </c>
+      <c r="E19" s="15">
+        <v>43574</v>
+      </c>
+      <c r="F19" s="1">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1">
+        <v>90</v>
+      </c>
+      <c r="H19" s="1">
+        <v>125.8</v>
+      </c>
+      <c r="I19" s="2">
         <v>18</v>
       </c>
     </row>
@@ -2992,10 +3021,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="A40" sqref="A40:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4015,6 +4044,32 @@
       </c>
       <c r="H39" s="4">
         <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" customHeight="1">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="15">
+        <v>43573</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15">
+        <v>43591</v>
+      </c>
+      <c r="E40" s="2">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5921,10 +5976,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6100,6 +6155,23 @@
       </c>
       <c r="E10" s="3">
         <v>44258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43573</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>43573</v>
       </c>
     </row>
   </sheetData>
@@ -6116,7 +6188,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF396B0-116D-3347-994E-1680DF48CC70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEC4873-C4D4-014E-AC15-65E72874D9CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="280">
   <si>
     <t>eid</t>
   </si>
@@ -2451,7 +2451,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2911,7 +2911,7 @@
         <v>44316</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1">
         <v>90</v>
@@ -3024,7 +3024,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:C40"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4536,7 +4536,7 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -4846,7 +4846,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4875,7 +4875,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="3">
-        <v>43649</v>
+        <v>42188</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -4886,7 +4886,7 @@
         <v>237</v>
       </c>
       <c r="C3" s="3">
-        <v>43650</v>
+        <v>42189</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -4897,7 +4897,7 @@
         <v>238</v>
       </c>
       <c r="C4" s="3">
-        <v>43651</v>
+        <v>42190</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -4908,7 +4908,7 @@
         <v>239</v>
       </c>
       <c r="C5" s="3">
-        <v>43652</v>
+        <v>42191</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -4919,7 +4919,7 @@
         <v>240</v>
       </c>
       <c r="C6" s="3">
-        <v>43653</v>
+        <v>42192</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -4930,7 +4930,7 @@
         <v>241</v>
       </c>
       <c r="C7" s="3">
-        <v>43654</v>
+        <v>42193</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -4941,7 +4941,7 @@
         <v>242</v>
       </c>
       <c r="C8" s="3">
-        <v>43655</v>
+        <v>42194</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -4952,7 +4952,7 @@
         <v>243</v>
       </c>
       <c r="C9" s="3">
-        <v>43656</v>
+        <v>42195</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -4963,7 +4963,7 @@
         <v>244</v>
       </c>
       <c r="C10" s="3">
-        <v>43657</v>
+        <v>42196</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -4974,7 +4974,7 @@
         <v>245</v>
       </c>
       <c r="C11" s="3">
-        <v>43658</v>
+        <v>42197</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -4985,7 +4985,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="5">
-        <v>44198</v>
+        <v>42006</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
@@ -4996,7 +4996,7 @@
         <v>247</v>
       </c>
       <c r="C13" s="5">
-        <v>43834</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -5007,7 +5007,7 @@
         <v>248</v>
       </c>
       <c r="C14" s="5">
-        <v>43835</v>
+        <v>42009</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -5018,7 +5018,7 @@
         <v>249</v>
       </c>
       <c r="C15" s="5">
-        <v>43836</v>
+        <v>42010</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -5029,7 +5029,7 @@
         <v>250</v>
       </c>
       <c r="C16" s="5">
-        <v>43837</v>
+        <v>42011</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -5040,7 +5040,7 @@
         <v>251</v>
       </c>
       <c r="C17" s="5">
-        <v>43838</v>
+        <v>42012</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -5051,7 +5051,7 @@
         <v>252</v>
       </c>
       <c r="C18" s="5">
-        <v>43839</v>
+        <v>42013</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
@@ -5062,7 +5062,7 @@
         <v>253</v>
       </c>
       <c r="C19" s="5">
-        <v>43840</v>
+        <v>42014</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -5073,7 +5073,7 @@
         <v>254</v>
       </c>
       <c r="C20" s="5">
-        <v>43841</v>
+        <v>42015</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -5084,7 +5084,7 @@
         <v>255</v>
       </c>
       <c r="C21" s="5">
-        <v>43842</v>
+        <v>42016</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -5095,7 +5095,7 @@
         <v>256</v>
       </c>
       <c r="C22" s="5">
-        <v>43843</v>
+        <v>42017</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -5106,7 +5106,7 @@
         <v>257</v>
       </c>
       <c r="C23" s="5">
-        <v>43844</v>
+        <v>42018</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -5117,7 +5117,7 @@
         <v>258</v>
       </c>
       <c r="C24" s="5">
-        <v>43845</v>
+        <v>42019</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -5128,7 +5128,7 @@
         <v>259</v>
       </c>
       <c r="C25" s="5">
-        <v>43846</v>
+        <v>42020</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
@@ -5139,7 +5139,7 @@
         <v>260</v>
       </c>
       <c r="C26" s="5">
-        <v>43847</v>
+        <v>42021</v>
       </c>
     </row>
   </sheetData>
@@ -5156,7 +5156,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5494,7 +5494,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5701,8 +5701,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5976,10 +5976,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6172,6 +6172,23 @@
       </c>
       <c r="E11" s="15">
         <v>43573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="14">
+        <v>44256</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44258</v>
       </c>
     </row>
   </sheetData>
@@ -6188,7 +6205,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEC4873-C4D4-014E-AC15-65E72874D9CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2BDBEA-26B1-E045-AB34-2A304903246E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,17 @@
     <sheet name="Registers" sheetId="22" r:id="rId22"/>
     <sheet name="Cancels" sheetId="23" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId27" roundtripDataSignature="AMtx7mhKG3Zlx72GLTVwlsHN/7s2RNYUJw=="/>
     </ext>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
   <si>
     <t>eid</t>
   </si>
@@ -1260,7 +1269,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2451,7 +2460,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3024,7 +3033,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4846,7 +4855,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5494,7 +5503,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5702,7 +5711,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5976,10 +5985,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6189,6 +6198,23 @@
       </c>
       <c r="E12" s="3">
         <v>44258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
+        <v>44256</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14">
+        <v>44256</v>
       </c>
     </row>
   </sheetData>
@@ -6202,10 +6228,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6302,6 +6328,30 @@
         <v>0</v>
       </c>
       <c r="G4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="26">
+        <v>21</v>
+      </c>
+      <c r="B5" s="26">
+        <v>10</v>
+      </c>
+      <c r="C5" s="27">
+        <v>44256</v>
+      </c>
+      <c r="D5" s="26">
+        <v>8</v>
+      </c>
+      <c r="E5" s="27">
+        <v>44257</v>
+      </c>
+      <c r="F5">
+        <f>79.9*0.9</f>
+        <v>71.910000000000011</v>
+      </c>
+      <c r="G5" s="26">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2BDBEA-26B1-E045-AB34-2A304903246E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA4685-B498-424A-9B31-7E669E416412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="281">
   <si>
     <t>eid</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>pkg_credit</t>
+  </si>
+  <si>
+    <t>03-02</t>
   </si>
 </sst>
 </file>
@@ -1731,10 +1734,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1983,6 +1986,17 @@
         <v>113</v>
       </c>
       <c r="C22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
     </row>
@@ -3033,7 +3047,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4855,7 +4869,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5502,8 +5516,8 @@
   </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5711,7 +5725,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5988,7 +6002,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6230,8 +6244,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CA4685-B498-424A-9B31-7E669E416412}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F7F1A-5DA7-8C44-A831-D34972273953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="281">
   <si>
     <t>eid</t>
   </si>
@@ -1002,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1051,6 +1051,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1736,7 +1744,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -3047,7 +3055,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3888,54 +3896,54 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="21">
+      <c r="A33" s="28">
         <v>10</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="29">
         <v>44256</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="30">
         <v>4</v>
       </c>
-      <c r="D33" s="5">
-        <v>44294</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="31">
+        <v>44295</v>
+      </c>
+      <c r="E33" s="30">
         <v>14</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="30">
         <v>18</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="30">
         <v>15</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="30">
         <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="28">
+      <c r="A34" s="32">
         <v>10</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="33">
         <v>44256</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="34">
         <v>5</v>
       </c>
-      <c r="D34" s="31">
-        <v>44295</v>
-      </c>
-      <c r="E34" s="30">
+      <c r="D34" s="35">
+        <v>44301</v>
+      </c>
+      <c r="E34" s="34">
         <v>14</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="34">
         <v>18</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="34">
         <v>15</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="34">
         <v>21</v>
       </c>
     </row>
@@ -5517,7 +5525,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5722,10 +5730,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5986,6 +5994,29 @@
       </c>
       <c r="G11" s="5">
         <v>44266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1">
+      <c r="A12" s="26">
+        <v>2</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="27">
+        <v>43381</v>
+      </c>
+      <c r="D12" s="32">
+        <v>10</v>
+      </c>
+      <c r="E12" s="33">
+        <v>44256</v>
+      </c>
+      <c r="F12" s="34">
+        <v>5</v>
+      </c>
+      <c r="G12" s="33">
+        <v>44256</v>
       </c>
     </row>
   </sheetData>
@@ -6002,7 +6033,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F7F1A-5DA7-8C44-A831-D34972273953}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E367423-E25C-8A4D-9A17-CDEE989D5C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -2481,8 +2481,8 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3055,7 +3055,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5187,7 +5187,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5525,7 +5525,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5732,8 +5732,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6276,7 +6276,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E367423-E25C-8A4D-9A17-CDEE989D5C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C7D03BD-8920-2245-8F02-8E687EBC633D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" firstSheet="11" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,17 +37,8 @@
     <sheet name="Registers" sheetId="22" r:id="rId22"/>
     <sheet name="Cancels" sheetId="23" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId27" roundtripDataSignature="AMtx7mhKG3Zlx72GLTVwlsHN/7s2RNYUJw=="/>
     </ext>
@@ -919,16 +910,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -943,6 +937,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2481,7 +2476,7 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -6275,8 +6270,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6392,9 +6387,8 @@
       <c r="E5" s="27">
         <v>44257</v>
       </c>
-      <c r="F5">
-        <f>79.9*0.9</f>
-        <v>71.910000000000011</v>
+      <c r="F5" s="26">
+        <v>71.91</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E367423-E25C-8A4D-9A17-CDEE989D5C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D9AD9-E379-5943-8280-E7C64B34E6BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="283">
   <si>
     <t>eid</t>
   </si>
@@ -899,6 +899,12 @@
   </si>
   <si>
     <t>03-02</t>
+  </si>
+  <si>
+    <t>Introduction to AI</t>
+  </si>
+  <si>
+    <t>easy AI module</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1059,6 +1065,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1745,7 +1752,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2266,10 +2273,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2468,6 +2475,23 @@
         <v>4</v>
       </c>
     </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -2479,10 +2503,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3039,6 +3063,35 @@
       </c>
       <c r="I19" s="2">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="36">
+        <v>44317</v>
+      </c>
+      <c r="C20" s="36">
+        <v>44348</v>
+      </c>
+      <c r="D20" s="36">
+        <v>44348</v>
+      </c>
+      <c r="E20" s="36">
+        <v>44321</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>59.9</v>
+      </c>
+      <c r="I20" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3052,10 +3105,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4101,6 +4154,32 @@
       </c>
       <c r="H40" s="1">
         <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" customHeight="1">
+      <c r="A41" s="2">
+        <v>11</v>
+      </c>
+      <c r="B41" s="36">
+        <v>44317</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="36">
+        <v>44348</v>
+      </c>
+      <c r="E41" s="2">
+        <v>14</v>
+      </c>
+      <c r="F41" s="2">
+        <v>17</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5733,7 +5812,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6030,10 +6109,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6260,6 +6339,23 @@
       </c>
       <c r="E13" s="14">
         <v>44256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="36">
+        <v>44317</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="36">
+        <v>44317</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D9AD9-E379-5943-8280-E7C64B34E6BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8486ED-772B-2F44-AA9B-69CA3F4E235D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -2506,7 +2506,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6111,7 +6111,7 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -6371,8 +6371,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6489,8 +6489,7 @@
         <v>44257</v>
       </c>
       <c r="F5">
-        <f>79.9*0.9</f>
-        <v>71.910000000000011</v>
+        <v>71.91</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8486ED-772B-2F44-AA9B-69CA3F4E235D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34EB2D-2C76-2B4E-9572-EB7A67CFB798}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="9" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="286">
   <si>
     <t>eid</t>
   </si>
@@ -905,6 +905,15 @@
   </si>
   <si>
     <t>easy AI module</t>
+  </si>
+  <si>
+    <t>Zoe Wang</t>
+  </si>
+  <si>
+    <t>zoe@gmail.com</t>
+  </si>
+  <si>
+    <t>(+65) 10103399</t>
   </si>
 </sst>
 </file>
@@ -915,7 +924,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -955,6 +964,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1005,10 +1020,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1066,8 +1082,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1284,10 +1302,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1738,7 +1756,30 @@
         <v>44295</v>
       </c>
     </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="5">
+        <v>43134</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{F9A9486A-83A1-6448-9FC6-92475FC6954C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2029,7 +2070,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2137,10 +2178,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2260,6 +2301,14 @@
       </c>
       <c r="B14" s="8" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="A15" s="2">
+        <v>21</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +3157,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5467,10 +5516,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5588,6 +5637,14 @@
       </c>
       <c r="B14" s="4">
         <v>1790</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="A15" s="2">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -6371,7 +6428,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -6592,10 +6649,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD1048576"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6671,6 +6728,11 @@
     <row r="14" spans="1:1" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15" customHeight="1">
+      <c r="A15" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -6684,10 +6746,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD1048576"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6728,6 +6790,11 @@
     <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15" customHeight="1">
+      <c r="A8" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/cs2102-team61/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC34EB2D-2C76-2B4E-9572-EB7A67CFB798}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E542D67-5DC0-1F4D-A425-FB9EE0F1A1AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -21,33 +21,23 @@
     <sheet name="Part_time_instructors" sheetId="6" r:id="rId6"/>
     <sheet name="Administrators" sheetId="7" r:id="rId7"/>
     <sheet name="Managers" sheetId="8" r:id="rId8"/>
-    <sheet name="Pay_slips" sheetId="9" r:id="rId9"/>
-    <sheet name="Rooms" sheetId="10" r:id="rId10"/>
-    <sheet name="Course_areas" sheetId="11" r:id="rId11"/>
-    <sheet name="Specializes" sheetId="15" r:id="rId12"/>
-    <sheet name="Courses" sheetId="12" r:id="rId13"/>
-    <sheet name="Offerings" sheetId="13" r:id="rId14"/>
-    <sheet name="Sessions" sheetId="14" r:id="rId15"/>
-    <sheet name="Customers" sheetId="16" r:id="rId16"/>
-    <sheet name="Credit_cards" sheetId="17" r:id="rId17"/>
-    <sheet name="Owns" sheetId="18" r:id="rId18"/>
-    <sheet name="Course_packages" sheetId="19" r:id="rId19"/>
-    <sheet name="Buys" sheetId="20" r:id="rId20"/>
-    <sheet name="Redeems" sheetId="21" r:id="rId21"/>
-    <sheet name="Registers" sheetId="22" r:id="rId22"/>
-    <sheet name="Cancels" sheetId="23" r:id="rId23"/>
+    <sheet name="Rooms" sheetId="10" r:id="rId9"/>
+    <sheet name="Course_areas" sheetId="11" r:id="rId10"/>
+    <sheet name="Specializes" sheetId="15" r:id="rId11"/>
+    <sheet name="Courses" sheetId="12" r:id="rId12"/>
+    <sheet name="Offerings" sheetId="13" r:id="rId13"/>
+    <sheet name="Sessions" sheetId="14" r:id="rId14"/>
+    <sheet name="Customers" sheetId="16" r:id="rId15"/>
+    <sheet name="Credit_cards" sheetId="17" r:id="rId16"/>
+    <sheet name="Owns" sheetId="18" r:id="rId17"/>
+    <sheet name="Course_packages" sheetId="19" r:id="rId18"/>
+    <sheet name="Buys" sheetId="20" r:id="rId19"/>
+    <sheet name="Redeems" sheetId="21" r:id="rId20"/>
+    <sheet name="Registers" sheetId="22" r:id="rId21"/>
+    <sheet name="Cancels" sheetId="23" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId27" roundtripDataSignature="AMtx7mhKG3Zlx72GLTVwlsHN/7s2RNYUJw=="/>
     </ext>
@@ -56,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="282">
   <si>
     <t>eid</t>
   </si>
@@ -314,18 +304,6 @@
   </si>
   <si>
     <t>hourly_rate</t>
-  </si>
-  <si>
-    <t>payment_date</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>num_work_hours</t>
-  </si>
-  <si>
-    <t>num_work_days</t>
   </si>
   <si>
     <t>rid</t>
@@ -934,16 +912,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -958,6 +939,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -970,6 +952,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1304,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1761,13 +1744,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>79</v>
@@ -1786,283 +1769,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
-    <col min="3" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2081,15 +1787,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" s="9">
         <v>6</v>
@@ -2097,7 +1803,7 @@
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" s="9">
         <v>6</v>
@@ -2105,7 +1811,7 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B4" s="11">
         <v>6</v>
@@ -2113,7 +1819,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" s="11">
         <v>6</v>
@@ -2121,7 +1827,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" s="11">
         <v>8</v>
@@ -2129,7 +1835,7 @@
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="11">
         <v>8</v>
@@ -2137,7 +1843,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
@@ -2145,7 +1851,7 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1">
         <v>19</v>
@@ -2153,7 +1859,7 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" s="4">
         <v>19</v>
@@ -2161,7 +1867,7 @@
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B11" s="4">
         <v>19</v>
@@ -2173,14 +1879,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2193,10 +1899,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
@@ -2204,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
@@ -2212,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
@@ -2220,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -2228,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
@@ -2236,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -2244,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -2252,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
@@ -2260,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
@@ -2268,7 +1974,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
@@ -2276,7 +1982,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
@@ -2284,7 +1990,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
@@ -2292,7 +1998,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
@@ -2300,7 +2006,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1">
@@ -2308,7 +2014,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2317,14 +2023,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="125" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2339,19 +2045,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -2359,13 +2065,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" s="7">
         <v>2</v>
@@ -2376,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E3" s="7">
         <v>2</v>
@@ -2393,13 +2099,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" s="7">
         <v>3</v>
@@ -2410,13 +2116,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E5" s="7">
         <v>2</v>
@@ -2427,13 +2133,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E6" s="7">
         <v>1.5</v>
@@ -2444,13 +2150,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -2461,13 +2167,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
@@ -2478,13 +2184,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E9" s="7">
         <v>1</v>
@@ -2495,13 +2201,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E10" s="7">
         <v>1.5</v>
@@ -2512,13 +2218,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E11" s="8">
         <v>4</v>
@@ -2529,13 +2235,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E12" s="7">
         <v>3</v>
@@ -2547,15 +2253,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2565,31 +2271,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
@@ -2615,7 +2321,7 @@
         <v>160</v>
       </c>
       <c r="H2" s="1">
-        <v>39.9</v>
+        <v>6139.9</v>
       </c>
       <c r="I2" s="1">
         <v>9</v>
@@ -2644,7 +2350,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="1">
-        <v>29.9</v>
+        <v>7329.9</v>
       </c>
       <c r="I3" s="1">
         <v>9</v>
@@ -2673,7 +2379,7 @@
         <v>120</v>
       </c>
       <c r="H4" s="1">
-        <v>39.9</v>
+        <v>8539.9</v>
       </c>
       <c r="I4" s="1">
         <v>9</v>
@@ -2702,7 +2408,7 @@
         <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>59.9</v>
+        <v>6859.9</v>
       </c>
       <c r="I5" s="1">
         <v>9</v>
@@ -2731,7 +2437,7 @@
         <v>200</v>
       </c>
       <c r="H6" s="1">
-        <v>10.9</v>
+        <v>9710.9</v>
       </c>
       <c r="I6" s="1">
         <v>9</v>
@@ -2760,7 +2466,7 @@
         <v>200</v>
       </c>
       <c r="H7" s="1">
-        <v>30.9</v>
+        <v>6830.9</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -2789,7 +2495,7 @@
         <v>160</v>
       </c>
       <c r="H8" s="1">
-        <v>49.9</v>
+        <v>7649.9</v>
       </c>
       <c r="I8" s="1">
         <v>10</v>
@@ -2818,7 +2524,7 @@
         <v>160</v>
       </c>
       <c r="H9" s="1">
-        <v>49.9</v>
+        <v>9949.9</v>
       </c>
       <c r="I9" s="1">
         <v>10</v>
@@ -2847,7 +2553,7 @@
         <v>180</v>
       </c>
       <c r="H10" s="1">
-        <v>39.9</v>
+        <v>8839.9</v>
       </c>
       <c r="I10" s="1">
         <v>10</v>
@@ -2876,7 +2582,7 @@
         <v>160</v>
       </c>
       <c r="H11" s="1">
-        <v>35.9</v>
+        <v>6635.9</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -2905,7 +2611,7 @@
         <v>75</v>
       </c>
       <c r="H12" s="1">
-        <v>59.9</v>
+        <v>7759.9</v>
       </c>
       <c r="I12" s="1">
         <v>10</v>
@@ -2934,7 +2640,7 @@
         <v>40</v>
       </c>
       <c r="H13" s="1">
-        <v>79.900000000000006</v>
+        <v>9779.9</v>
       </c>
       <c r="I13" s="2">
         <v>18</v>
@@ -2963,7 +2669,7 @@
         <v>40</v>
       </c>
       <c r="H14" s="1">
-        <v>79.900000000000006</v>
+        <v>9079.9</v>
       </c>
       <c r="I14" s="2">
         <v>18</v>
@@ -2992,7 +2698,7 @@
         <v>40</v>
       </c>
       <c r="H15" s="1">
-        <v>79.900000000000006</v>
+        <v>6879.9</v>
       </c>
       <c r="I15" s="2">
         <v>18</v>
@@ -3021,7 +2727,7 @@
         <v>90</v>
       </c>
       <c r="H16" s="1">
-        <v>49.9</v>
+        <v>8749.9</v>
       </c>
       <c r="I16" s="4">
         <v>18</v>
@@ -3050,7 +2756,7 @@
         <v>90</v>
       </c>
       <c r="H17" s="1">
-        <v>125.8</v>
+        <v>9125.7999999999993</v>
       </c>
       <c r="I17" s="2">
         <v>18</v>
@@ -3079,7 +2785,7 @@
         <v>10</v>
       </c>
       <c r="H18" s="4">
-        <v>79.900000000000006</v>
+        <v>8279.9</v>
       </c>
       <c r="I18" s="4">
         <v>18</v>
@@ -3108,7 +2814,7 @@
         <v>90</v>
       </c>
       <c r="H19" s="1">
-        <v>125.8</v>
+        <v>9125.7999999999993</v>
       </c>
       <c r="I19" s="2">
         <v>18</v>
@@ -3137,7 +2843,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2">
-        <v>59.9</v>
+        <v>9459.9</v>
       </c>
       <c r="I20" s="2">
         <v>9</v>
@@ -3149,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3167,28 +2873,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
@@ -4237,7 +3943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4257,10 +3963,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -4277,16 +3983,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -4294,16 +4000,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -4311,16 +4017,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -4328,16 +4034,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -4345,16 +4051,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -4362,16 +4068,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -4379,16 +4085,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -4396,16 +4102,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
@@ -4413,16 +4119,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
@@ -4430,16 +4136,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
@@ -4447,16 +4153,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>199</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
@@ -4464,16 +4170,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
@@ -4481,16 +4187,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>199</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
@@ -4498,16 +4204,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
@@ -4515,16 +4221,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
@@ -4532,13 +4238,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
@@ -4546,13 +4252,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
@@ -4560,13 +4266,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
@@ -4574,16 +4280,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
@@ -4591,16 +4297,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
@@ -4608,16 +4314,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
@@ -4625,16 +4331,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
@@ -4642,16 +4348,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
@@ -4659,13 +4365,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
@@ -4673,13 +4379,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4688,7 +4394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4707,18 +4413,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B2" s="3">
         <v>45476</v>
@@ -4729,7 +4435,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B3" s="3">
         <v>45477</v>
@@ -4740,7 +4446,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B4" s="3">
         <v>45478</v>
@@ -4751,7 +4457,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B5" s="3">
         <v>45479</v>
@@ -4762,7 +4468,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B6" s="3">
         <v>45480</v>
@@ -4773,7 +4479,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7" s="3">
         <v>45481</v>
@@ -4784,7 +4490,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B8" s="3">
         <v>45482</v>
@@ -4795,7 +4501,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B9" s="3">
         <v>45483</v>
@@ -4806,7 +4512,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B10" s="3">
         <v>45484</v>
@@ -4817,7 +4523,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B11" s="3">
         <v>45485</v>
@@ -4828,7 +4534,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B12" s="5">
         <v>72812</v>
@@ -4839,7 +4545,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B13" s="5">
         <v>45421</v>
@@ -4850,7 +4556,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B14" s="5">
         <v>45422</v>
@@ -4861,7 +4567,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B15" s="5">
         <v>45423</v>
@@ -4872,7 +4578,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B16" s="5">
         <v>45424</v>
@@ -4883,7 +4589,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B17" s="5">
         <v>45425</v>
@@ -4894,7 +4600,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B18" s="5">
         <v>45426</v>
@@ -4905,7 +4611,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B19" s="5">
         <v>45427</v>
@@ -4916,7 +4622,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B20" s="5">
         <v>45428</v>
@@ -4927,7 +4633,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B21" s="5">
         <v>45429</v>
@@ -4938,7 +4644,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B22" s="5">
         <v>45430</v>
@@ -4949,7 +4655,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B23" s="5">
         <v>45431</v>
@@ -4960,7 +4666,7 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B24" s="5">
         <v>45432</v>
@@ -4971,7 +4677,7 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B25" s="5">
         <v>45433</v>
@@ -4982,7 +4688,7 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B26" s="5">
         <v>45434</v>
@@ -4997,14 +4703,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -5017,13 +4723,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -5031,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C2" s="3">
         <v>42188</v>
@@ -5042,7 +4748,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C3" s="3">
         <v>42189</v>
@@ -5053,7 +4759,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3">
         <v>42190</v>
@@ -5064,7 +4770,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" s="3">
         <v>42191</v>
@@ -5075,7 +4781,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C6" s="3">
         <v>42192</v>
@@ -5086,7 +4792,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C7" s="3">
         <v>42193</v>
@@ -5097,7 +4803,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C8" s="3">
         <v>42194</v>
@@ -5108,7 +4814,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C9" s="3">
         <v>42195</v>
@@ -5119,7 +4825,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C10" s="3">
         <v>42196</v>
@@ -5130,7 +4836,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3">
         <v>42197</v>
@@ -5141,7 +4847,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C12" s="5">
         <v>42006</v>
@@ -5152,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C13" s="5">
         <v>42008</v>
@@ -5163,7 +4869,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C14" s="5">
         <v>42009</v>
@@ -5174,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C15" s="5">
         <v>42010</v>
@@ -5185,7 +4891,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C16" s="5">
         <v>42011</v>
@@ -5196,7 +4902,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C17" s="5">
         <v>42012</v>
@@ -5207,7 +4913,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C18" s="5">
         <v>42013</v>
@@ -5218,7 +4924,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C19" s="5">
         <v>42014</v>
@@ -5229,7 +4935,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C20" s="5">
         <v>42015</v>
@@ -5240,7 +4946,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C21" s="5">
         <v>42016</v>
@@ -5251,7 +4957,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C22" s="5">
         <v>42017</v>
@@ -5262,7 +4968,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C23" s="5">
         <v>42018</v>
@@ -5273,7 +4979,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C24" s="5">
         <v>42019</v>
@@ -5284,7 +4990,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C25" s="5">
         <v>42020</v>
@@ -5295,7 +5001,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C26" s="5">
         <v>42021</v>
@@ -5307,15 +5013,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5327,22 +5033,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
@@ -5359,10 +5065,10 @@
         <v>42730</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F2" s="1">
-        <v>166</v>
+        <v>39166</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -5379,10 +5085,10 @@
         <v>46973</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F3" s="1">
-        <v>178</v>
+        <v>45178</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
@@ -5399,10 +5105,10 @@
         <v>47483</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F4" s="1">
-        <v>308</v>
+        <v>97308</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -5419,10 +5125,10 @@
         <v>44594</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F5" s="1">
-        <v>399</v>
+        <v>101399</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
@@ -5439,10 +5145,10 @@
         <v>44531</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F6" s="1">
-        <v>188</v>
+        <v>68888</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
@@ -5459,10 +5165,10 @@
         <v>44532</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F7" s="1">
-        <v>198</v>
+        <v>72198</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
@@ -5479,10 +5185,10 @@
         <v>44533</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F8" s="1">
-        <v>233</v>
+        <v>78233</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
@@ -5499,10 +5205,10 @@
         <v>44470</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F9" s="4">
-        <v>10</v>
+        <v>6666</v>
       </c>
     </row>
   </sheetData>
@@ -5511,149 +5217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="6" width="14.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
-        <v>18</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1">
-      <c r="A15" s="2">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5675,16 +5239,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -5692,7 +5256,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C2" s="27">
         <v>42528</v>
@@ -5706,7 +5270,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C3" s="27">
         <v>43381</v>
@@ -5720,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C4" s="27">
         <v>44197</v>
@@ -5734,7 +5298,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C5" s="27">
         <v>44197</v>
@@ -5748,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C6" s="27">
         <v>44197</v>
@@ -5762,7 +5326,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C7" s="27">
         <v>43321</v>
@@ -5776,7 +5340,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C8" s="27">
         <v>44288</v>
@@ -5790,7 +5354,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C9" s="27">
         <v>44288</v>
@@ -5804,7 +5368,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C10" s="27">
         <v>44288</v>
@@ -5818,7 +5382,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C11" s="27">
         <v>44288</v>
@@ -5832,7 +5396,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C12" s="27">
         <v>44230</v>
@@ -5846,7 +5410,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C13" s="27">
         <v>44230</v>
@@ -5861,7 +5425,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="6" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="4">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="4">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="4">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1">
+      <c r="A15" s="2">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5881,25 +5587,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -5907,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3">
         <v>43381</v>
@@ -5930,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C3" s="18">
         <v>43381</v>
@@ -5953,7 +5659,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C4" s="3">
         <v>43381</v>
@@ -5976,7 +5682,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C5" s="3">
         <v>44197</v>
@@ -5999,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C6" s="3">
         <v>42528</v>
@@ -6022,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C7" s="3">
         <v>43381</v>
@@ -6045,7 +5751,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C8" s="3">
         <v>44197</v>
@@ -6068,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C9" s="3">
         <v>42528</v>
@@ -6091,7 +5797,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C10" s="5">
         <v>44230</v>
@@ -6114,7 +5820,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C11" s="5">
         <v>44230</v>
@@ -6137,7 +5843,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C12" s="27">
         <v>43381</v>
@@ -6161,7 +5867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6169,7 +5875,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6179,24 +5885,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -6213,7 +5919,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -6230,7 +5936,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
@@ -6247,7 +5953,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B5" s="19">
         <v>5</v>
@@ -6264,7 +5970,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -6281,7 +5987,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
@@ -6298,7 +6004,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B8" s="1">
         <v>8</v>
@@ -6315,7 +6021,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -6332,7 +6038,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -6349,7 +6055,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -6366,7 +6072,7 @@
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1">
         <v>8</v>
@@ -6383,7 +6089,7 @@
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B13" s="2">
         <v>10</v>
@@ -6400,7 +6106,7 @@
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B14" s="2">
         <v>11</v>
@@ -6421,15 +6127,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="194" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6439,25 +6145,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -6477,7 +6183,7 @@
         <v>44102</v>
       </c>
       <c r="F2" s="26">
-        <v>35.909999999999997</v>
+        <v>5525.91</v>
       </c>
       <c r="G2" s="26">
         <v>0</v>
@@ -6546,7 +6252,7 @@
         <v>44257</v>
       </c>
       <c r="F5">
-        <v>71.91</v>
+        <v>7451.91</v>
       </c>
       <c r="G5" s="26">
         <v>0</v>
@@ -6565,8 +6271,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="191" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6587,7 +6293,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>2000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
@@ -6595,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
@@ -6603,7 +6309,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -6611,7 +6317,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
@@ -6619,7 +6325,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
@@ -6627,7 +6333,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
@@ -6635,7 +6341,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6651,7 +6357,7 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -6748,7 +6454,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="184" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -6810,8 +6516,8 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD1048576"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6872,7 +6578,7 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="268" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -6914,7 +6620,7 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="207" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -6955,36 +6661,274 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>89</v>
+      </c>
+      <c r="C2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/acciopacus/Desktop/CS2102/cs2102-team61/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E542D67-5DC0-1F4D-A425-FB9EE0F1A1AC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2874E9E-CD99-884D-B7A4-3FE5C10FD122}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="10" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="282">
   <si>
     <t>eid</t>
   </si>
@@ -2030,8 +2030,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2260,8 +2260,8 @@
   </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3951,7 +3951,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4711,7 +4711,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView zoomScale="136" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5225,7 +5225,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5575,7 +5575,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5872,10 +5872,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -6119,6 +6119,23 @@
       </c>
       <c r="E14" s="36">
         <v>44317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
+        <v>43952</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>43957</v>
       </c>
     </row>
   </sheetData>
@@ -6135,7 +6152,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="194" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
